--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anandhan\Desktop\New folder\coil_qr_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anandhan\Desktop\New folder\coil_qr_app\Coil_Find v.2.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0327E4-CC80-43DE-B404-8AF9BA75EA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140747C9-114D-48FA-913E-750F6F691159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{02814C34-B676-419B-8961-6A5169E2E00A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>S.NO</t>
   </si>
@@ -63,328 +63,7 @@
     <t xml:space="preserve">NET WT </t>
   </si>
   <si>
-    <t>VDR</t>
-  </si>
-  <si>
     <t>Line No</t>
-  </si>
-  <si>
-    <t>SGARC340BH-E</t>
-  </si>
-  <si>
-    <t>MIP</t>
-  </si>
-  <si>
-    <t>SGACUD-E</t>
-  </si>
-  <si>
-    <t>AA55A2447</t>
-  </si>
-  <si>
-    <t>SACD</t>
-  </si>
-  <si>
-    <t>AA55A2448</t>
-  </si>
-  <si>
-    <t>AA55A2443</t>
-  </si>
-  <si>
-    <t>AA55A2444</t>
-  </si>
-  <si>
-    <t>AA55A2397</t>
-  </si>
-  <si>
-    <t>AA55A2398</t>
-  </si>
-  <si>
-    <t>AA55A2399</t>
-  </si>
-  <si>
-    <t>AA55A2400</t>
-  </si>
-  <si>
-    <t>AA55A2460</t>
-  </si>
-  <si>
-    <t>AA55A2462</t>
-  </si>
-  <si>
-    <t>AA55A2401</t>
-  </si>
-  <si>
-    <t>AA55A2402</t>
-  </si>
-  <si>
-    <t>AA55A2403</t>
-  </si>
-  <si>
-    <t>CSR9311CB</t>
-  </si>
-  <si>
-    <t>CPS1142A</t>
-  </si>
-  <si>
-    <t>CPS1143B</t>
-  </si>
-  <si>
-    <t>CPS1143A</t>
-  </si>
-  <si>
-    <t>CSRB362B</t>
-  </si>
-  <si>
-    <t>CSS6535BB</t>
-  </si>
-  <si>
-    <t>CSS1408C</t>
-  </si>
-  <si>
-    <t>CSRB362A</t>
-  </si>
-  <si>
-    <t>CSRB359B</t>
-  </si>
-  <si>
-    <t>CSS1408B-25</t>
-  </si>
-  <si>
-    <t>CSRB877AB</t>
-  </si>
-  <si>
-    <t>CSRB358A</t>
-  </si>
-  <si>
-    <t>CSRB363A</t>
-  </si>
-  <si>
-    <t>CSRB360C</t>
-  </si>
-  <si>
-    <t>CSRB360B</t>
-  </si>
-  <si>
-    <t>CSRB876B</t>
-  </si>
-  <si>
-    <t>CSS6535A</t>
-  </si>
-  <si>
-    <t>CSRB877BB</t>
-  </si>
-  <si>
-    <t>CSRB876A</t>
-  </si>
-  <si>
-    <t>CSRB361A</t>
-  </si>
-  <si>
-    <t>CSRB359A</t>
-  </si>
-  <si>
-    <t>CSRB363B</t>
-  </si>
-  <si>
-    <t>CSSC597B</t>
-  </si>
-  <si>
-    <t>CSRB350B</t>
-  </si>
-  <si>
-    <t>CSRB772B</t>
-  </si>
-  <si>
-    <t>CSRB350A</t>
-  </si>
-  <si>
-    <t>CSS1409B</t>
-  </si>
-  <si>
-    <t>CSRA440B</t>
-  </si>
-  <si>
-    <t>CSS1409C</t>
-  </si>
-  <si>
-    <t>CSS6536BA</t>
-  </si>
-  <si>
-    <t>CSS1449AB</t>
-  </si>
-  <si>
-    <t>CSRB351A</t>
-  </si>
-  <si>
-    <t>CSRB774B</t>
-  </si>
-  <si>
-    <t>CSRB352A</t>
-  </si>
-  <si>
-    <t>CSS6536BB</t>
-  </si>
-  <si>
-    <t>CSRB773A</t>
-  </si>
-  <si>
-    <t>CSRB774A</t>
-  </si>
-  <si>
-    <t>CSS1449AA</t>
-  </si>
-  <si>
-    <t>CSRB772A</t>
-  </si>
-  <si>
-    <t>CSRB351B</t>
-  </si>
-  <si>
-    <t>CSRB773C</t>
-  </si>
-  <si>
-    <t>CSR8697C</t>
-  </si>
-  <si>
-    <t>CSRB874B</t>
-  </si>
-  <si>
-    <t>CSS6537A</t>
-  </si>
-  <si>
-    <t>CSRC025B</t>
-  </si>
-  <si>
-    <t>CSRB874A</t>
-  </si>
-  <si>
-    <t>CSS6537B</t>
-  </si>
-  <si>
-    <t>CSRB875B</t>
-  </si>
-  <si>
-    <t>CSRA438C</t>
-  </si>
-  <si>
-    <t>CSS6538BA</t>
-  </si>
-  <si>
-    <t>CSS1445C</t>
-  </si>
-  <si>
-    <t>CSRB775B</t>
-  </si>
-  <si>
-    <t>CSRC026AA</t>
-  </si>
-  <si>
-    <t>CSRA445B</t>
-  </si>
-  <si>
-    <t>CSSC596B</t>
-  </si>
-  <si>
-    <t>CSS6538BB</t>
-  </si>
-  <si>
-    <t>CSRA447CB</t>
-  </si>
-  <si>
-    <t>CSS1445B</t>
-  </si>
-  <si>
-    <t>CSRC026B</t>
-  </si>
-  <si>
-    <t>CSRB875A</t>
-  </si>
-  <si>
-    <t>CSRB775A</t>
-  </si>
-  <si>
-    <t>CSSC764C</t>
-  </si>
-  <si>
-    <t>CSRA438D</t>
-  </si>
-  <si>
-    <t>CSS1411B</t>
-  </si>
-  <si>
-    <t>CSRB354C</t>
-  </si>
-  <si>
-    <t>CSRB365AB</t>
-  </si>
-  <si>
-    <t>CSRB357B</t>
-  </si>
-  <si>
-    <t>CSRB364A</t>
-  </si>
-  <si>
-    <t>CSRB356AA</t>
-  </si>
-  <si>
-    <t>CSRC181B</t>
-  </si>
-  <si>
-    <t>CSS1410A</t>
-  </si>
-  <si>
-    <t>CSRC181A</t>
-  </si>
-  <si>
-    <t>CSRB354B</t>
-  </si>
-  <si>
-    <t>CSRB356BB</t>
-  </si>
-  <si>
-    <t>CSS6539AA</t>
-  </si>
-  <si>
-    <t>CSRB355B</t>
-  </si>
-  <si>
-    <t>CSRB357A</t>
-  </si>
-  <si>
-    <t>CSRB365C</t>
-  </si>
-  <si>
-    <t>CSRB364B</t>
-  </si>
-  <si>
-    <t>CSRB355A</t>
-  </si>
-  <si>
-    <t>CSS6539B</t>
-  </si>
-  <si>
-    <t>CSS1411A</t>
-  </si>
-  <si>
-    <t>CSS1410B</t>
-  </si>
-  <si>
-    <t>CQR8775B</t>
-  </si>
-  <si>
-    <t>CPS3433B</t>
-  </si>
-  <si>
-    <t>CPS3433A</t>
-  </si>
-  <si>
-    <t>CPS3434B</t>
-  </si>
-  <si>
-    <t>CPS3432</t>
-  </si>
-  <si>
-    <t>CPS3434A</t>
   </si>
 </sst>
 </file>
@@ -901,8 +580,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M3000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -947,3270 +626,1434 @@
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E2" s="9">
-        <v>850</v>
-      </c>
-      <c r="F2" s="10">
-        <v>8580</v>
-      </c>
-      <c r="G2" s="10">
-        <v>8649</v>
-      </c>
-      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="8">
-        <v>52</v>
-      </c>
+      <c r="J2" s="8"/>
       <c r="K2" s="2"/>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E3" s="9">
-        <v>850</v>
-      </c>
-      <c r="F3" s="10">
-        <v>8070</v>
-      </c>
-      <c r="G3" s="10">
-        <v>8139</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="8">
-        <v>52</v>
-      </c>
+      <c r="J3" s="8"/>
       <c r="K3" s="2"/>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1030</v>
-      </c>
-      <c r="F4" s="10">
-        <v>11760</v>
-      </c>
-      <c r="G4" s="10">
-        <v>11842</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="8">
-        <v>52</v>
-      </c>
+      <c r="J4" s="8"/>
       <c r="K4" s="2"/>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1030</v>
-      </c>
-      <c r="F5" s="10">
-        <v>11560</v>
-      </c>
-      <c r="G5" s="10">
-        <v>11642</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="8">
-        <v>52</v>
-      </c>
+      <c r="J5" s="8"/>
       <c r="K5" s="2"/>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1100</v>
-      </c>
-      <c r="F6" s="10">
-        <v>11520</v>
-      </c>
-      <c r="G6" s="10">
-        <v>11602</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="8">
-        <v>2</v>
-      </c>
+      <c r="J6" s="8"/>
       <c r="K6" s="2"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1100</v>
-      </c>
-      <c r="F7" s="10">
-        <v>11580</v>
-      </c>
-      <c r="G7" s="10">
-        <v>11662</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="8">
-        <v>2</v>
-      </c>
+      <c r="J7" s="8"/>
       <c r="K7" s="2"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1100</v>
-      </c>
-      <c r="F8" s="10">
-        <v>11450</v>
-      </c>
-      <c r="G8" s="10">
-        <v>11532</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8">
-        <v>2</v>
-      </c>
+      <c r="J8" s="8"/>
       <c r="K8" s="2"/>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1100</v>
-      </c>
-      <c r="F9" s="10">
-        <v>11550</v>
-      </c>
-      <c r="G9" s="10">
-        <v>11632</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="8">
-        <v>2</v>
-      </c>
+      <c r="J9" s="8"/>
       <c r="K9" s="2"/>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="9">
-        <v>800</v>
-      </c>
-      <c r="F10" s="10">
-        <v>10070</v>
-      </c>
-      <c r="G10" s="10">
-        <v>10146</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="8">
-        <v>2</v>
-      </c>
+      <c r="J10" s="8"/>
       <c r="K10" s="2"/>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="9">
-        <v>800</v>
-      </c>
-      <c r="F11" s="10">
-        <v>11760</v>
-      </c>
-      <c r="G11" s="10">
-        <v>11842</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="8">
-        <v>2</v>
-      </c>
+      <c r="J11" s="8"/>
       <c r="K11" s="2"/>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1105</v>
-      </c>
-      <c r="F12" s="10">
-        <v>8360</v>
-      </c>
-      <c r="G12" s="10">
-        <v>8429</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="8">
-        <v>50</v>
-      </c>
+      <c r="J12" s="8"/>
       <c r="K12" s="2"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1105</v>
-      </c>
-      <c r="F13" s="10">
-        <v>8350</v>
-      </c>
-      <c r="G13" s="10">
-        <v>8419</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="8">
-        <v>50</v>
-      </c>
+      <c r="J13" s="8"/>
       <c r="K13" s="2"/>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1105</v>
-      </c>
-      <c r="F14" s="10">
-        <v>8390</v>
-      </c>
-      <c r="G14" s="10">
-        <v>8459</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8">
-        <v>50</v>
-      </c>
+      <c r="J14" s="8"/>
       <c r="K14" s="2"/>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1145</v>
-      </c>
-      <c r="F15" s="10">
-        <v>11460</v>
-      </c>
-      <c r="G15" s="10">
-        <v>11545</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="8">
-        <v>12</v>
-      </c>
+      <c r="J15" s="8"/>
       <c r="K15" s="2"/>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:13" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F16" s="10">
-        <v>16490</v>
-      </c>
-      <c r="G16" s="10">
-        <v>16586</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="8">
-        <v>12</v>
-      </c>
+      <c r="J16" s="8"/>
       <c r="K16" s="2"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F17" s="10">
-        <v>16300</v>
-      </c>
-      <c r="G17" s="10">
-        <v>16396</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="8">
-        <v>12</v>
-      </c>
+      <c r="J17" s="8"/>
       <c r="K17" s="2"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F18" s="10">
-        <v>16490</v>
-      </c>
-      <c r="G18" s="10">
-        <v>16586</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="8">
-        <v>12</v>
-      </c>
+      <c r="J18" s="8"/>
       <c r="K18" s="2"/>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E19" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F19" s="10">
-        <v>14750</v>
-      </c>
-      <c r="G19" s="10">
-        <v>14842</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="8">
-        <v>12</v>
-      </c>
+      <c r="J19" s="8"/>
       <c r="K19" s="2"/>
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F20" s="10">
-        <v>13710</v>
-      </c>
-      <c r="G20" s="10">
-        <v>13802</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="8">
-        <v>12</v>
-      </c>
+      <c r="J20" s="8"/>
       <c r="K20" s="2"/>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F21" s="10">
-        <v>13380</v>
-      </c>
-      <c r="G21" s="10">
-        <v>13472</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A21" s="8"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="8">
-        <v>12</v>
-      </c>
+      <c r="J21" s="8"/>
       <c r="K21" s="2"/>
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F22" s="10">
-        <v>14630</v>
-      </c>
-      <c r="G22" s="10">
-        <v>14722</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="8">
-        <v>12</v>
-      </c>
+      <c r="J22" s="8"/>
       <c r="K22" s="2"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:13" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E23" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F23" s="10">
-        <v>15250</v>
-      </c>
-      <c r="G23" s="10">
-        <v>15346</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="8">
-        <v>12</v>
-      </c>
+      <c r="J23" s="8"/>
       <c r="K23" s="2"/>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F24" s="10">
-        <v>13660</v>
-      </c>
-      <c r="G24" s="10">
-        <v>13752</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="8">
-        <v>12</v>
-      </c>
+      <c r="J24" s="8"/>
       <c r="K24" s="2"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F25" s="10">
-        <v>15990</v>
-      </c>
-      <c r="G25" s="10">
-        <v>16086</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="8">
-        <v>12</v>
-      </c>
+      <c r="J25" s="8"/>
       <c r="K25" s="2"/>
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F26" s="10">
-        <v>15770</v>
-      </c>
-      <c r="G26" s="10">
-        <v>15866</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="8">
-        <v>12</v>
-      </c>
+      <c r="J26" s="8"/>
       <c r="K26" s="2"/>
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E27" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F27" s="10">
-        <v>16140</v>
-      </c>
-      <c r="G27" s="10">
-        <v>16236</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="8">
-        <v>12</v>
-      </c>
+      <c r="J27" s="8"/>
       <c r="K27" s="2"/>
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E28" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F28" s="10">
-        <v>13540</v>
-      </c>
-      <c r="G28" s="10">
-        <v>13632</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="8">
-        <v>12</v>
-      </c>
+      <c r="J28" s="8"/>
       <c r="K28" s="2"/>
       <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E29" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F29" s="10">
-        <v>13640</v>
-      </c>
-      <c r="G29" s="10">
-        <v>13732</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="8">
-        <v>12</v>
-      </c>
+      <c r="J29" s="8"/>
       <c r="K29" s="2"/>
       <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E30" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F30" s="10">
-        <v>16470</v>
-      </c>
-      <c r="G30" s="10">
-        <v>16566</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="8">
-        <v>12</v>
-      </c>
+      <c r="J30" s="8"/>
       <c r="K30" s="2"/>
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E31" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F31" s="10">
-        <v>16520</v>
-      </c>
-      <c r="G31" s="10">
-        <v>16616</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="8">
-        <v>12</v>
-      </c>
+      <c r="J31" s="8"/>
       <c r="K31" s="2"/>
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E32" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F32" s="10">
-        <v>15660</v>
-      </c>
-      <c r="G32" s="10">
-        <v>15756</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="8">
-        <v>12</v>
-      </c>
+      <c r="J32" s="8"/>
       <c r="K32" s="2"/>
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E33" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F33" s="10">
-        <v>16120</v>
-      </c>
-      <c r="G33" s="10">
-        <v>16216</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="8">
-        <v>12</v>
-      </c>
+      <c r="J33" s="8"/>
       <c r="K33" s="2"/>
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E34" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F34" s="10">
-        <v>15190</v>
-      </c>
-      <c r="G34" s="10">
-        <v>15286</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="8">
-        <v>12</v>
-      </c>
+      <c r="J34" s="8"/>
       <c r="K34" s="2"/>
       <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E35" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F35" s="10">
-        <v>15070</v>
-      </c>
-      <c r="G35" s="10">
-        <v>15166</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="8"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="8">
-        <v>12</v>
-      </c>
+      <c r="J35" s="8"/>
       <c r="K35" s="2"/>
       <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E36" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F36" s="10">
-        <v>16410</v>
-      </c>
-      <c r="G36" s="10">
-        <v>16506</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="8">
-        <v>12</v>
-      </c>
+      <c r="J36" s="8"/>
       <c r="K36" s="2"/>
       <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E37" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F37" s="10">
-        <v>14070</v>
-      </c>
-      <c r="G37" s="10">
-        <v>14162</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="8">
-        <v>12</v>
-      </c>
+      <c r="J37" s="8"/>
       <c r="K37" s="2"/>
       <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E38" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F38" s="10">
-        <v>11590</v>
-      </c>
-      <c r="G38" s="10">
-        <v>11678</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="8">
-        <v>12</v>
-      </c>
+      <c r="J38" s="8"/>
       <c r="K38" s="2"/>
       <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E39" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F39" s="10">
-        <v>16250</v>
-      </c>
-      <c r="G39" s="10">
-        <v>16346</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="8"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="8">
-        <v>12</v>
-      </c>
+      <c r="J39" s="8"/>
       <c r="K39" s="2"/>
       <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E40" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F40" s="10">
-        <v>16080</v>
-      </c>
-      <c r="G40" s="10">
-        <v>16176</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="8">
-        <v>12</v>
-      </c>
+      <c r="J40" s="8"/>
       <c r="K40" s="2"/>
       <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E41" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F41" s="10">
-        <v>14760</v>
-      </c>
-      <c r="G41" s="10">
-        <v>14852</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="8">
-        <v>12</v>
-      </c>
+      <c r="J41" s="8"/>
       <c r="K41" s="2"/>
       <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E42" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F42" s="10">
-        <v>16250</v>
-      </c>
-      <c r="G42" s="10">
-        <v>16346</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="8"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="8">
-        <v>12</v>
-      </c>
+      <c r="J42" s="8"/>
       <c r="K42" s="2"/>
       <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E43" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F43" s="10">
-        <v>16480</v>
-      </c>
-      <c r="G43" s="10">
-        <v>16576</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="8"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="8">
-        <v>12</v>
-      </c>
+      <c r="J43" s="8"/>
       <c r="K43" s="2"/>
       <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E44" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F44" s="10">
-        <v>15080</v>
-      </c>
-      <c r="G44" s="10">
-        <v>15176</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="8">
-        <v>12</v>
-      </c>
+      <c r="J44" s="8"/>
       <c r="K44" s="2"/>
       <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E45" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F45" s="10">
-        <v>12930</v>
-      </c>
-      <c r="G45" s="10">
-        <v>13018</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="8">
-        <v>12</v>
-      </c>
+      <c r="J45" s="8"/>
       <c r="K45" s="2"/>
       <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E46" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F46" s="10">
-        <v>16090</v>
-      </c>
-      <c r="G46" s="10">
-        <v>16186</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="8">
-        <v>12</v>
-      </c>
+      <c r="J46" s="8"/>
       <c r="K46" s="2"/>
       <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E47" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F47" s="10">
-        <v>16660</v>
-      </c>
-      <c r="G47" s="10">
-        <v>16756</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="8"/>
       <c r="I47" s="8"/>
-      <c r="J47" s="8">
-        <v>12</v>
-      </c>
+      <c r="J47" s="8"/>
       <c r="K47" s="2"/>
       <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E48" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F48" s="10">
-        <v>16350</v>
-      </c>
-      <c r="G48" s="10">
-        <v>16446</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="8"/>
-      <c r="J48" s="8">
-        <v>12</v>
-      </c>
+      <c r="J48" s="8"/>
       <c r="K48" s="2"/>
       <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E49" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F49" s="10">
-        <v>15340</v>
-      </c>
-      <c r="G49" s="10">
-        <v>15436</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="8"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="8">
-        <v>12</v>
-      </c>
+      <c r="J49" s="8"/>
       <c r="K49" s="2"/>
       <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E50" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F50" s="10">
-        <v>16500</v>
-      </c>
-      <c r="G50" s="10">
-        <v>16596</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="8"/>
       <c r="I50" s="8"/>
-      <c r="J50" s="8">
-        <v>12</v>
-      </c>
+      <c r="J50" s="8"/>
       <c r="K50" s="2"/>
       <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E51" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F51" s="10">
-        <v>16470</v>
-      </c>
-      <c r="G51" s="10">
-        <v>16566</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="8"/>
       <c r="I51" s="8"/>
-      <c r="J51" s="8">
-        <v>12</v>
-      </c>
+      <c r="J51" s="8"/>
       <c r="K51" s="2"/>
       <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
-        <v>51</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E52" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F52" s="10">
-        <v>12730</v>
-      </c>
-      <c r="G52" s="10">
-        <v>12818</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="8"/>
       <c r="I52" s="8"/>
-      <c r="J52" s="8">
-        <v>12</v>
-      </c>
+      <c r="J52" s="8"/>
       <c r="K52" s="2"/>
       <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
-        <v>52</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E53" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F53" s="10">
-        <v>16480</v>
-      </c>
-      <c r="G53" s="10">
-        <v>16576</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="8">
-        <v>12</v>
-      </c>
+      <c r="J53" s="8"/>
       <c r="K53" s="2"/>
       <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
-        <v>53</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E54" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F54" s="10">
-        <v>16650</v>
-      </c>
-      <c r="G54" s="10">
-        <v>16746</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="8"/>
       <c r="I54" s="8"/>
-      <c r="J54" s="8">
-        <v>12</v>
-      </c>
+      <c r="J54" s="8"/>
       <c r="K54" s="2"/>
       <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
-        <v>54</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E55" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F55" s="10">
-        <v>12040</v>
-      </c>
-      <c r="G55" s="10">
-        <v>12128</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="8"/>
       <c r="I55" s="8"/>
-      <c r="J55" s="8">
-        <v>12</v>
-      </c>
+      <c r="J55" s="8"/>
       <c r="K55" s="2"/>
       <c r="L55" s="7"/>
     </row>
     <row r="56" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
-        <v>55</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E56" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F56" s="10">
-        <v>10360</v>
-      </c>
-      <c r="G56" s="10">
-        <v>10444</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="8"/>
       <c r="I56" s="8"/>
-      <c r="J56" s="8">
-        <v>12</v>
-      </c>
+      <c r="J56" s="8"/>
       <c r="K56" s="2"/>
       <c r="L56" s="7"/>
     </row>
     <row r="57" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
-        <v>56</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E57" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F57" s="10">
-        <v>16350</v>
-      </c>
-      <c r="G57" s="10">
-        <v>16446</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="8"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="8">
-        <v>12</v>
-      </c>
+      <c r="J57" s="8"/>
       <c r="K57" s="2"/>
       <c r="L57" s="7"/>
     </row>
     <row r="58" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
-        <v>57</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E58" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F58" s="10">
-        <v>11590</v>
-      </c>
-      <c r="G58" s="10">
-        <v>11678</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="8"/>
       <c r="I58" s="8"/>
-      <c r="J58" s="8">
-        <v>12</v>
-      </c>
+      <c r="J58" s="8"/>
       <c r="K58" s="2"/>
       <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
-        <v>58</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E59" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F59" s="10">
-        <v>16380</v>
-      </c>
-      <c r="G59" s="10">
-        <v>16476</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="8"/>
       <c r="I59" s="8"/>
-      <c r="J59" s="8">
-        <v>12</v>
-      </c>
+      <c r="J59" s="8"/>
       <c r="K59" s="2"/>
       <c r="L59" s="7"/>
     </row>
     <row r="60" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
-        <v>59</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E60" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F60" s="10">
-        <v>16480</v>
-      </c>
-      <c r="G60" s="10">
-        <v>16576</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="8"/>
       <c r="I60" s="8"/>
-      <c r="J60" s="8">
-        <v>12</v>
-      </c>
+      <c r="J60" s="8"/>
       <c r="K60" s="2"/>
       <c r="L60" s="7"/>
     </row>
     <row r="61" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="8">
-        <v>60</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E61" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F61" s="10">
-        <v>11570</v>
-      </c>
-      <c r="G61" s="10">
-        <v>11658</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="8"/>
       <c r="I61" s="8"/>
-      <c r="J61" s="8">
-        <v>12</v>
-      </c>
+      <c r="J61" s="8"/>
       <c r="K61" s="2"/>
       <c r="L61" s="7"/>
     </row>
     <row r="62" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
-        <v>61</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E62" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F62" s="10">
-        <v>12760</v>
-      </c>
-      <c r="G62" s="10">
-        <v>12848</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="8"/>
       <c r="I62" s="8"/>
-      <c r="J62" s="8">
-        <v>12</v>
-      </c>
+      <c r="J62" s="8"/>
       <c r="K62" s="2"/>
       <c r="L62" s="7"/>
     </row>
     <row r="63" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
-        <v>62</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E63" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F63" s="10">
-        <v>12290</v>
-      </c>
-      <c r="G63" s="10">
-        <v>12378</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="8"/>
       <c r="I63" s="8"/>
-      <c r="J63" s="8">
-        <v>12</v>
-      </c>
+      <c r="J63" s="8"/>
       <c r="K63" s="2"/>
       <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="8">
-        <v>63</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E64" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F64" s="10">
-        <v>9600</v>
-      </c>
-      <c r="G64" s="10">
-        <v>9684</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="8"/>
       <c r="I64" s="8"/>
-      <c r="J64" s="8">
-        <v>12</v>
-      </c>
+      <c r="J64" s="8"/>
       <c r="K64" s="2"/>
       <c r="L64" s="7"/>
     </row>
     <row r="65" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="8">
-        <v>64</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E65" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F65" s="10">
-        <v>16250</v>
-      </c>
-      <c r="G65" s="10">
-        <v>16346</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="8"/>
       <c r="I65" s="8"/>
-      <c r="J65" s="8">
-        <v>12</v>
-      </c>
+      <c r="J65" s="8"/>
       <c r="K65" s="2"/>
       <c r="L65" s="7"/>
     </row>
     <row r="66" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="8">
-        <v>65</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E66" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F66" s="10">
-        <v>16270</v>
-      </c>
-      <c r="G66" s="10">
-        <v>16366</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="8"/>
       <c r="I66" s="8"/>
-      <c r="J66" s="8">
-        <v>12</v>
-      </c>
+      <c r="J66" s="8"/>
       <c r="K66" s="2"/>
       <c r="L66" s="7"/>
     </row>
     <row r="67" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="8">
-        <v>66</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E67" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F67" s="10">
-        <v>15800</v>
-      </c>
-      <c r="G67" s="10">
-        <v>15896</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="8"/>
       <c r="I67" s="8"/>
-      <c r="J67" s="8">
-        <v>12</v>
-      </c>
+      <c r="J67" s="8"/>
       <c r="K67" s="2"/>
       <c r="L67" s="7"/>
     </row>
     <row r="68" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="8">
-        <v>67</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E68" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F68" s="10">
-        <v>12960</v>
-      </c>
-      <c r="G68" s="10">
-        <v>13048</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="8"/>
       <c r="I68" s="8"/>
-      <c r="J68" s="8">
-        <v>12</v>
-      </c>
+      <c r="J68" s="8"/>
       <c r="K68" s="2"/>
       <c r="L68" s="7"/>
     </row>
     <row r="69" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
-        <v>68</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E69" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F69" s="10">
-        <v>9520</v>
-      </c>
-      <c r="G69" s="10">
-        <v>9604</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="8"/>
       <c r="I69" s="8"/>
-      <c r="J69" s="8">
-        <v>12</v>
-      </c>
+      <c r="J69" s="8"/>
       <c r="K69" s="2"/>
       <c r="L69" s="7"/>
     </row>
     <row r="70" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="8">
-        <v>69</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E70" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F70" s="10">
-        <v>16700</v>
-      </c>
-      <c r="G70" s="10">
-        <v>16796</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="8"/>
       <c r="I70" s="8"/>
-      <c r="J70" s="8">
-        <v>12</v>
-      </c>
+      <c r="J70" s="8"/>
       <c r="K70" s="2"/>
       <c r="L70" s="7"/>
     </row>
     <row r="71" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="8">
-        <v>70</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E71" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F71" s="10">
-        <v>12290</v>
-      </c>
-      <c r="G71" s="10">
-        <v>12378</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="8"/>
       <c r="I71" s="8"/>
-      <c r="J71" s="8">
-        <v>12</v>
-      </c>
+      <c r="J71" s="8"/>
       <c r="K71" s="2"/>
       <c r="L71" s="7"/>
     </row>
     <row r="72" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
-        <v>71</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E72" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F72" s="10">
-        <v>16260</v>
-      </c>
-      <c r="G72" s="10">
-        <v>16356</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="8"/>
       <c r="I72" s="8"/>
-      <c r="J72" s="8">
-        <v>12</v>
-      </c>
+      <c r="J72" s="8"/>
       <c r="K72" s="2"/>
       <c r="L72" s="7"/>
     </row>
     <row r="73" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="8">
-        <v>72</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E73" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F73" s="10">
-        <v>16230</v>
-      </c>
-      <c r="G73" s="10">
-        <v>16326</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="8"/>
       <c r="I73" s="8"/>
-      <c r="J73" s="8">
-        <v>12</v>
-      </c>
+      <c r="J73" s="8"/>
       <c r="K73" s="2"/>
       <c r="L73" s="7"/>
     </row>
     <row r="74" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
-        <v>73</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E74" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F74" s="10">
-        <v>12820</v>
-      </c>
-      <c r="G74" s="10">
-        <v>12908</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="8"/>
       <c r="I74" s="8"/>
-      <c r="J74" s="8">
-        <v>12</v>
-      </c>
+      <c r="J74" s="8"/>
       <c r="K74" s="2"/>
       <c r="L74" s="7"/>
     </row>
     <row r="75" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="8">
-        <v>74</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E75" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F75" s="10">
-        <v>16640</v>
-      </c>
-      <c r="G75" s="10">
-        <v>16736</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="8"/>
       <c r="I75" s="8"/>
-      <c r="J75" s="8">
-        <v>12</v>
-      </c>
+      <c r="J75" s="8"/>
       <c r="K75" s="2"/>
       <c r="L75" s="7"/>
     </row>
     <row r="76" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="8">
-        <v>75</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E76" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F76" s="10">
-        <v>8980</v>
-      </c>
-      <c r="G76" s="10">
-        <v>9059</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="8"/>
       <c r="I76" s="8"/>
-      <c r="J76" s="8">
-        <v>12</v>
-      </c>
+      <c r="J76" s="8"/>
       <c r="K76" s="2"/>
       <c r="L76" s="7"/>
     </row>
     <row r="77" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="8">
-        <v>76</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E77" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F77" s="10">
-        <v>10530</v>
-      </c>
-      <c r="G77" s="10">
-        <v>10614</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="8"/>
       <c r="I77" s="8"/>
-      <c r="J77" s="8">
-        <v>12</v>
-      </c>
+      <c r="J77" s="8"/>
       <c r="K77" s="2"/>
       <c r="L77" s="7"/>
     </row>
     <row r="78" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
-        <v>77</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E78" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F78" s="10">
-        <v>15210</v>
-      </c>
-      <c r="G78" s="10">
-        <v>15306</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="8"/>
       <c r="I78" s="8"/>
-      <c r="J78" s="8">
-        <v>12</v>
-      </c>
+      <c r="J78" s="8"/>
       <c r="K78" s="2"/>
       <c r="L78" s="7"/>
     </row>
     <row r="79" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="8">
-        <v>78</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E79" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F79" s="10">
-        <v>12130</v>
-      </c>
-      <c r="G79" s="10">
-        <v>12218</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="8"/>
       <c r="I79" s="8"/>
-      <c r="J79" s="8">
-        <v>12</v>
-      </c>
+      <c r="J79" s="8"/>
       <c r="K79" s="2"/>
       <c r="L79" s="7"/>
     </row>
     <row r="80" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="8">
-        <v>79</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E80" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F80" s="10">
-        <v>15130</v>
-      </c>
-      <c r="G80" s="10">
-        <v>15226</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="8"/>
       <c r="I80" s="8"/>
-      <c r="J80" s="8">
-        <v>12</v>
-      </c>
+      <c r="J80" s="8"/>
       <c r="K80" s="2"/>
       <c r="L80" s="7"/>
     </row>
     <row r="81" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="8">
-        <v>80</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E81" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F81" s="10">
-        <v>16360</v>
-      </c>
-      <c r="G81" s="10">
-        <v>16456</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="8"/>
       <c r="I81" s="8"/>
-      <c r="J81" s="8">
-        <v>12</v>
-      </c>
+      <c r="J81" s="8"/>
       <c r="K81" s="2"/>
       <c r="L81" s="7"/>
     </row>
     <row r="82" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
-        <v>81</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E82" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F82" s="10">
-        <v>16240</v>
-      </c>
-      <c r="G82" s="10">
-        <v>16336</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="8"/>
       <c r="I82" s="8"/>
-      <c r="J82" s="8">
-        <v>12</v>
-      </c>
+      <c r="J82" s="8"/>
       <c r="K82" s="2"/>
       <c r="L82" s="7"/>
     </row>
     <row r="83" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="8">
-        <v>82</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E83" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F83" s="10">
-        <v>15560</v>
-      </c>
-      <c r="G83" s="10">
-        <v>15656</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="8"/>
       <c r="I83" s="8"/>
-      <c r="J83" s="8">
-        <v>12</v>
-      </c>
+      <c r="J83" s="8"/>
       <c r="K83" s="2"/>
       <c r="L83" s="7"/>
     </row>
     <row r="84" spans="1:13" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
-        <v>83</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E84" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F84" s="10">
-        <v>15820</v>
-      </c>
-      <c r="G84" s="10">
-        <v>15916</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="8"/>
       <c r="I84" s="8"/>
-      <c r="J84" s="8">
-        <v>12</v>
-      </c>
+      <c r="J84" s="8"/>
       <c r="K84" s="2"/>
       <c r="M84" s="5"/>
     </row>
     <row r="85" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="8">
-        <v>84</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E85" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F85" s="10">
-        <v>13980</v>
-      </c>
-      <c r="G85" s="10">
-        <v>14072</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="8"/>
       <c r="I85" s="8"/>
-      <c r="J85" s="8">
-        <v>12</v>
-      </c>
+      <c r="J85" s="8"/>
       <c r="K85" s="2"/>
       <c r="L85" s="7"/>
     </row>
     <row r="86" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
-        <v>85</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E86" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F86" s="10">
-        <v>16640</v>
-      </c>
-      <c r="G86" s="10">
-        <v>16736</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="8"/>
       <c r="I86" s="8"/>
-      <c r="J86" s="8">
-        <v>12</v>
-      </c>
+      <c r="J86" s="8"/>
       <c r="K86" s="2"/>
       <c r="L86" s="7"/>
     </row>
     <row r="87" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="8">
-        <v>86</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E87" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F87" s="10">
-        <v>12010</v>
-      </c>
-      <c r="G87" s="10">
-        <v>12098</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="8"/>
       <c r="I87" s="8"/>
-      <c r="J87" s="8">
-        <v>12</v>
-      </c>
+      <c r="J87" s="8"/>
       <c r="K87" s="2"/>
       <c r="L87" s="7"/>
     </row>
     <row r="88" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
-        <v>87</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E88" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F88" s="10">
-        <v>15920</v>
-      </c>
-      <c r="G88" s="10">
-        <v>16016</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="8"/>
       <c r="I88" s="8"/>
-      <c r="J88" s="8">
-        <v>12</v>
-      </c>
+      <c r="J88" s="8"/>
       <c r="K88" s="2"/>
       <c r="L88" s="7"/>
     </row>
     <row r="89" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
-        <v>88</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E89" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F89" s="10">
-        <v>11730</v>
-      </c>
-      <c r="G89" s="10">
-        <v>11818</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="8"/>
       <c r="I89" s="8"/>
-      <c r="J89" s="8">
-        <v>12</v>
-      </c>
+      <c r="J89" s="8"/>
       <c r="K89" s="2"/>
       <c r="L89" s="7"/>
     </row>
     <row r="90" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
-        <v>89</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E90" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F90" s="10">
-        <v>16490</v>
-      </c>
-      <c r="G90" s="10">
-        <v>16586</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="8"/>
       <c r="I90" s="8"/>
-      <c r="J90" s="8">
-        <v>12</v>
-      </c>
+      <c r="J90" s="8"/>
       <c r="K90" s="2"/>
       <c r="L90" s="7"/>
     </row>
     <row r="91" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="8">
-        <v>90</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E91" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F91" s="10">
-        <v>13020</v>
-      </c>
-      <c r="G91" s="10">
-        <v>13112</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="8"/>
       <c r="I91" s="8"/>
-      <c r="J91" s="8">
-        <v>12</v>
-      </c>
+      <c r="J91" s="8"/>
       <c r="K91" s="2"/>
       <c r="L91" s="7"/>
     </row>
     <row r="92" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
-        <v>91</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E92" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F92" s="10">
-        <v>13190</v>
-      </c>
-      <c r="G92" s="10">
-        <v>13282</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="8"/>
       <c r="I92" s="8"/>
-      <c r="J92" s="8">
-        <v>12</v>
-      </c>
+      <c r="J92" s="8"/>
       <c r="K92" s="2"/>
       <c r="L92" s="7"/>
     </row>
     <row r="93" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="8">
-        <v>92</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E93" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F93" s="10">
-        <v>16510</v>
-      </c>
-      <c r="G93" s="10">
-        <v>16606</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="8"/>
       <c r="I93" s="8"/>
-      <c r="J93" s="8">
-        <v>12</v>
-      </c>
+      <c r="J93" s="8"/>
       <c r="K93" s="2"/>
       <c r="L93" s="7"/>
     </row>
     <row r="94" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="8">
-        <v>93</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E94" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F94" s="10">
-        <v>16280</v>
-      </c>
-      <c r="G94" s="10">
-        <v>16376</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="8"/>
       <c r="I94" s="8"/>
-      <c r="J94" s="8">
-        <v>12</v>
-      </c>
+      <c r="J94" s="8"/>
       <c r="K94" s="2"/>
       <c r="L94" s="7"/>
     </row>
     <row r="95" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="8">
-        <v>94</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E95" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F95" s="10">
-        <v>16570</v>
-      </c>
-      <c r="G95" s="10">
-        <v>16666</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="8"/>
       <c r="I95" s="8"/>
-      <c r="J95" s="8">
-        <v>12</v>
-      </c>
+      <c r="J95" s="8"/>
       <c r="K95" s="2"/>
       <c r="L95" s="7"/>
     </row>
     <row r="96" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="8">
-        <v>95</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E96" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F96" s="10">
-        <v>15200</v>
-      </c>
-      <c r="G96" s="10">
-        <v>15296</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="8"/>
       <c r="I96" s="8"/>
-      <c r="J96" s="8">
-        <v>12</v>
-      </c>
+      <c r="J96" s="8"/>
       <c r="K96" s="2"/>
       <c r="L96" s="7"/>
     </row>
     <row r="97" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="8">
-        <v>96</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E97" s="9">
-        <v>1585</v>
-      </c>
-      <c r="F97" s="10">
-        <v>14160</v>
-      </c>
-      <c r="G97" s="10">
-        <v>14252</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="8"/>
       <c r="I97" s="8"/>
-      <c r="J97" s="8">
-        <v>12</v>
-      </c>
+      <c r="J97" s="8"/>
       <c r="K97" s="2"/>
       <c r="L97" s="7"/>
     </row>
     <row r="98" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="8">
-        <v>97</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="8">
-        <v>0.65</v>
-      </c>
-      <c r="E98" s="9">
-        <v>1165</v>
-      </c>
-      <c r="F98" s="10">
-        <v>12630</v>
-      </c>
-      <c r="G98" s="10">
-        <v>12715</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="8"/>
       <c r="I98" s="8"/>
-      <c r="J98" s="8">
-        <v>12</v>
-      </c>
+      <c r="J98" s="8"/>
       <c r="K98" s="2"/>
       <c r="L98" s="7"/>
     </row>
     <row r="99" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="8">
-        <v>98</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" s="8">
-        <v>0.65</v>
-      </c>
-      <c r="E99" s="9">
-        <v>1165</v>
-      </c>
-      <c r="F99" s="10">
-        <v>13320</v>
-      </c>
-      <c r="G99" s="10">
-        <v>13409</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="8"/>
       <c r="I99" s="8"/>
-      <c r="J99" s="8">
-        <v>12</v>
-      </c>
+      <c r="J99" s="8"/>
       <c r="K99" s="2"/>
       <c r="L99" s="7"/>
     </row>
     <row r="100" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
-        <v>99</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="8">
-        <v>0.65</v>
-      </c>
-      <c r="E100" s="9">
-        <v>1165</v>
-      </c>
-      <c r="F100" s="10">
-        <v>13800</v>
-      </c>
-      <c r="G100" s="10">
-        <v>13889</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="8"/>
       <c r="I100" s="8"/>
-      <c r="J100" s="8">
-        <v>12</v>
-      </c>
+      <c r="J100" s="8"/>
       <c r="K100" s="2"/>
       <c r="L100" s="7"/>
     </row>
     <row r="101" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="8">
-        <v>100</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="8">
-        <v>0.65</v>
-      </c>
-      <c r="E101" s="9">
-        <v>1165</v>
-      </c>
-      <c r="F101" s="10">
-        <v>13880</v>
-      </c>
-      <c r="G101" s="10">
-        <v>13969</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="8"/>
       <c r="I101" s="8"/>
-      <c r="J101" s="8">
-        <v>12</v>
-      </c>
+      <c r="J101" s="8"/>
       <c r="K101" s="2"/>
       <c r="L101" s="7"/>
     </row>
     <row r="102" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
-        <v>101</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102" s="8">
-        <v>0.65</v>
-      </c>
-      <c r="E102" s="9">
-        <v>1165</v>
-      </c>
-      <c r="F102" s="10">
-        <v>15400</v>
-      </c>
-      <c r="G102" s="10">
-        <v>15493</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="8"/>
       <c r="I102" s="8"/>
-      <c r="J102" s="8">
-        <v>12</v>
-      </c>
+      <c r="J102" s="8"/>
       <c r="K102" s="2"/>
       <c r="L102" s="7"/>
     </row>
     <row r="103" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="8">
-        <v>102</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" s="8">
-        <v>0.65</v>
-      </c>
-      <c r="E103" s="9">
-        <v>1165</v>
-      </c>
-      <c r="F103" s="10">
-        <v>14040</v>
-      </c>
-      <c r="G103" s="10">
-        <v>14129</v>
-      </c>
-      <c r="H103" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="8"/>
       <c r="I103" s="8"/>
-      <c r="J103" s="8">
-        <v>12</v>
-      </c>
+      <c r="J103" s="8"/>
       <c r="K103" s="2"/>
       <c r="L103" s="7"/>
     </row>
@@ -39413,6 +37256,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f8d30160-d838-46fa-b375-f2886a9888f1"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="178ff7b3-1c7c-4caa-b6bc-b9448c65d779">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010052CA183F85819640B5A6A89111D1C08B" ma:contentTypeVersion="6643" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eefca48634ea730956df4e0624e5e437">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f8d30160-d838-46fa-b375-f2886a9888f1" xmlns:ns3="178ff7b3-1c7c-4caa-b6bc-b9448c65d779" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b3541ef74f95de235e216cef7c922eb" ns2:_="" ns3:_="">
     <xsd:import namespace="f8d30160-d838-46fa-b375-f2886a9888f1"/>
@@ -39692,26 +37555,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f8d30160-d838-46fa-b375-f2886a9888f1"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="178ff7b3-1c7c-4caa-b6bc-b9448c65d779">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715D7AF5-2267-4E99-8E42-595F74CE3DE2}">
   <ds:schemaRefs>
@@ -39721,6 +37564,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FDAE8A2-199F-4322-A3FE-18A3D934E985}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f8d30160-d838-46fa-b375-f2886a9888f1"/>
+    <ds:schemaRef ds:uri="178ff7b3-1c7c-4caa-b6bc-b9448c65d779"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C577670-5EAA-4A60-B99B-5F34467E25C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{850A5E4B-B5B8-4486-90EE-9E3470A185DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39737,23 +37599,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C577670-5EAA-4A60-B99B-5F34467E25C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FDAE8A2-199F-4322-A3FE-18A3D934E985}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f8d30160-d838-46fa-b375-f2886a9888f1"/>
-    <ds:schemaRef ds:uri="178ff7b3-1c7c-4caa-b6bc-b9448c65d779"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anandhan\Desktop\New folder\coil_qr_app\Coil_Find v.2.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anandhan\Desktop\New folder\coil_qr_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140747C9-114D-48FA-913E-750F6F691159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0327E4-CC80-43DE-B404-8AF9BA75EA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{02814C34-B676-419B-8961-6A5169E2E00A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="116">
   <si>
     <t>S.NO</t>
   </si>
@@ -63,7 +63,328 @@
     <t xml:space="preserve">NET WT </t>
   </si>
   <si>
+    <t>VDR</t>
+  </si>
+  <si>
     <t>Line No</t>
+  </si>
+  <si>
+    <t>SGARC340BH-E</t>
+  </si>
+  <si>
+    <t>MIP</t>
+  </si>
+  <si>
+    <t>SGACUD-E</t>
+  </si>
+  <si>
+    <t>AA55A2447</t>
+  </si>
+  <si>
+    <t>SACD</t>
+  </si>
+  <si>
+    <t>AA55A2448</t>
+  </si>
+  <si>
+    <t>AA55A2443</t>
+  </si>
+  <si>
+    <t>AA55A2444</t>
+  </si>
+  <si>
+    <t>AA55A2397</t>
+  </si>
+  <si>
+    <t>AA55A2398</t>
+  </si>
+  <si>
+    <t>AA55A2399</t>
+  </si>
+  <si>
+    <t>AA55A2400</t>
+  </si>
+  <si>
+    <t>AA55A2460</t>
+  </si>
+  <si>
+    <t>AA55A2462</t>
+  </si>
+  <si>
+    <t>AA55A2401</t>
+  </si>
+  <si>
+    <t>AA55A2402</t>
+  </si>
+  <si>
+    <t>AA55A2403</t>
+  </si>
+  <si>
+    <t>CSR9311CB</t>
+  </si>
+  <si>
+    <t>CPS1142A</t>
+  </si>
+  <si>
+    <t>CPS1143B</t>
+  </si>
+  <si>
+    <t>CPS1143A</t>
+  </si>
+  <si>
+    <t>CSRB362B</t>
+  </si>
+  <si>
+    <t>CSS6535BB</t>
+  </si>
+  <si>
+    <t>CSS1408C</t>
+  </si>
+  <si>
+    <t>CSRB362A</t>
+  </si>
+  <si>
+    <t>CSRB359B</t>
+  </si>
+  <si>
+    <t>CSS1408B-25</t>
+  </si>
+  <si>
+    <t>CSRB877AB</t>
+  </si>
+  <si>
+    <t>CSRB358A</t>
+  </si>
+  <si>
+    <t>CSRB363A</t>
+  </si>
+  <si>
+    <t>CSRB360C</t>
+  </si>
+  <si>
+    <t>CSRB360B</t>
+  </si>
+  <si>
+    <t>CSRB876B</t>
+  </si>
+  <si>
+    <t>CSS6535A</t>
+  </si>
+  <si>
+    <t>CSRB877BB</t>
+  </si>
+  <si>
+    <t>CSRB876A</t>
+  </si>
+  <si>
+    <t>CSRB361A</t>
+  </si>
+  <si>
+    <t>CSRB359A</t>
+  </si>
+  <si>
+    <t>CSRB363B</t>
+  </si>
+  <si>
+    <t>CSSC597B</t>
+  </si>
+  <si>
+    <t>CSRB350B</t>
+  </si>
+  <si>
+    <t>CSRB772B</t>
+  </si>
+  <si>
+    <t>CSRB350A</t>
+  </si>
+  <si>
+    <t>CSS1409B</t>
+  </si>
+  <si>
+    <t>CSRA440B</t>
+  </si>
+  <si>
+    <t>CSS1409C</t>
+  </si>
+  <si>
+    <t>CSS6536BA</t>
+  </si>
+  <si>
+    <t>CSS1449AB</t>
+  </si>
+  <si>
+    <t>CSRB351A</t>
+  </si>
+  <si>
+    <t>CSRB774B</t>
+  </si>
+  <si>
+    <t>CSRB352A</t>
+  </si>
+  <si>
+    <t>CSS6536BB</t>
+  </si>
+  <si>
+    <t>CSRB773A</t>
+  </si>
+  <si>
+    <t>CSRB774A</t>
+  </si>
+  <si>
+    <t>CSS1449AA</t>
+  </si>
+  <si>
+    <t>CSRB772A</t>
+  </si>
+  <si>
+    <t>CSRB351B</t>
+  </si>
+  <si>
+    <t>CSRB773C</t>
+  </si>
+  <si>
+    <t>CSR8697C</t>
+  </si>
+  <si>
+    <t>CSRB874B</t>
+  </si>
+  <si>
+    <t>CSS6537A</t>
+  </si>
+  <si>
+    <t>CSRC025B</t>
+  </si>
+  <si>
+    <t>CSRB874A</t>
+  </si>
+  <si>
+    <t>CSS6537B</t>
+  </si>
+  <si>
+    <t>CSRB875B</t>
+  </si>
+  <si>
+    <t>CSRA438C</t>
+  </si>
+  <si>
+    <t>CSS6538BA</t>
+  </si>
+  <si>
+    <t>CSS1445C</t>
+  </si>
+  <si>
+    <t>CSRB775B</t>
+  </si>
+  <si>
+    <t>CSRC026AA</t>
+  </si>
+  <si>
+    <t>CSRA445B</t>
+  </si>
+  <si>
+    <t>CSSC596B</t>
+  </si>
+  <si>
+    <t>CSS6538BB</t>
+  </si>
+  <si>
+    <t>CSRA447CB</t>
+  </si>
+  <si>
+    <t>CSS1445B</t>
+  </si>
+  <si>
+    <t>CSRC026B</t>
+  </si>
+  <si>
+    <t>CSRB875A</t>
+  </si>
+  <si>
+    <t>CSRB775A</t>
+  </si>
+  <si>
+    <t>CSSC764C</t>
+  </si>
+  <si>
+    <t>CSRA438D</t>
+  </si>
+  <si>
+    <t>CSS1411B</t>
+  </si>
+  <si>
+    <t>CSRB354C</t>
+  </si>
+  <si>
+    <t>CSRB365AB</t>
+  </si>
+  <si>
+    <t>CSRB357B</t>
+  </si>
+  <si>
+    <t>CSRB364A</t>
+  </si>
+  <si>
+    <t>CSRB356AA</t>
+  </si>
+  <si>
+    <t>CSRC181B</t>
+  </si>
+  <si>
+    <t>CSS1410A</t>
+  </si>
+  <si>
+    <t>CSRC181A</t>
+  </si>
+  <si>
+    <t>CSRB354B</t>
+  </si>
+  <si>
+    <t>CSRB356BB</t>
+  </si>
+  <si>
+    <t>CSS6539AA</t>
+  </si>
+  <si>
+    <t>CSRB355B</t>
+  </si>
+  <si>
+    <t>CSRB357A</t>
+  </si>
+  <si>
+    <t>CSRB365C</t>
+  </si>
+  <si>
+    <t>CSRB364B</t>
+  </si>
+  <si>
+    <t>CSRB355A</t>
+  </si>
+  <si>
+    <t>CSS6539B</t>
+  </si>
+  <si>
+    <t>CSS1411A</t>
+  </si>
+  <si>
+    <t>CSS1410B</t>
+  </si>
+  <si>
+    <t>CQR8775B</t>
+  </si>
+  <si>
+    <t>CPS3433B</t>
+  </si>
+  <si>
+    <t>CPS3433A</t>
+  </si>
+  <si>
+    <t>CPS3434B</t>
+  </si>
+  <si>
+    <t>CPS3432</t>
+  </si>
+  <si>
+    <t>CPS3434A</t>
   </si>
 </sst>
 </file>
@@ -580,8 +901,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M3000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -626,1434 +947,3270 @@
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="9">
+        <v>850</v>
+      </c>
+      <c r="F2" s="10">
+        <v>8580</v>
+      </c>
+      <c r="G2" s="10">
+        <v>8649</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="J2" s="8">
+        <v>52</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8"/>
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>850</v>
+      </c>
+      <c r="F3" s="10">
+        <v>8070</v>
+      </c>
+      <c r="G3" s="10">
+        <v>8139</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="J3" s="8">
+        <v>52</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8"/>
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1030</v>
+      </c>
+      <c r="F4" s="10">
+        <v>11760</v>
+      </c>
+      <c r="G4" s="10">
+        <v>11842</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8">
+        <v>52</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8"/>
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1030</v>
+      </c>
+      <c r="F5" s="10">
+        <v>11560</v>
+      </c>
+      <c r="G5" s="10">
+        <v>11642</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8">
+        <v>52</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1100</v>
+      </c>
+      <c r="F6" s="10">
+        <v>11520</v>
+      </c>
+      <c r="G6" s="10">
+        <v>11602</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8">
+        <v>2</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1100</v>
+      </c>
+      <c r="F7" s="10">
+        <v>11580</v>
+      </c>
+      <c r="G7" s="10">
+        <v>11662</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8">
+        <v>2</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="10">
+        <v>11450</v>
+      </c>
+      <c r="G8" s="10">
+        <v>11532</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8">
+        <v>2</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8"/>
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="10">
+        <v>11550</v>
+      </c>
+      <c r="G9" s="10">
+        <v>11632</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="J9" s="8">
+        <v>2</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8"/>
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="9">
+        <v>800</v>
+      </c>
+      <c r="F10" s="10">
+        <v>10070</v>
+      </c>
+      <c r="G10" s="10">
+        <v>10146</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="8">
+        <v>2</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8"/>
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="9">
+        <v>800</v>
+      </c>
+      <c r="F11" s="10">
+        <v>11760</v>
+      </c>
+      <c r="G11" s="10">
+        <v>11842</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="8">
+        <v>2</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8"/>
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1105</v>
+      </c>
+      <c r="F12" s="10">
+        <v>8360</v>
+      </c>
+      <c r="G12" s="10">
+        <v>8429</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="J12" s="8">
+        <v>50</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="8"/>
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1105</v>
+      </c>
+      <c r="F13" s="10">
+        <v>8350</v>
+      </c>
+      <c r="G13" s="10">
+        <v>8419</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="J13" s="8">
+        <v>50</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="8"/>
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1105</v>
+      </c>
+      <c r="F14" s="10">
+        <v>8390</v>
+      </c>
+      <c r="G14" s="10">
+        <v>8459</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8">
+        <v>50</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="8"/>
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1145</v>
+      </c>
+      <c r="F15" s="10">
+        <v>11460</v>
+      </c>
+      <c r="G15" s="10">
+        <v>11545</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="J15" s="8">
+        <v>12</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:13" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8"/>
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F16" s="10">
+        <v>16490</v>
+      </c>
+      <c r="G16" s="10">
+        <v>16586</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8">
+        <v>12</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="8"/>
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F17" s="10">
+        <v>16300</v>
+      </c>
+      <c r="G17" s="10">
+        <v>16396</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8">
+        <v>12</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="8"/>
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F18" s="10">
+        <v>16490</v>
+      </c>
+      <c r="G18" s="10">
+        <v>16586</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="J18" s="8">
+        <v>12</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8"/>
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F19" s="10">
+        <v>14750</v>
+      </c>
+      <c r="G19" s="10">
+        <v>14842</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="J19" s="8">
+        <v>12</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="8"/>
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F20" s="10">
+        <v>13710</v>
+      </c>
+      <c r="G20" s="10">
+        <v>13802</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="J20" s="8">
+        <v>12</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8"/>
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F21" s="10">
+        <v>13380</v>
+      </c>
+      <c r="G21" s="10">
+        <v>13472</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="J21" s="8">
+        <v>12</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="8"/>
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F22" s="10">
+        <v>14630</v>
+      </c>
+      <c r="G22" s="10">
+        <v>14722</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="J22" s="8">
+        <v>12</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:13" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="8"/>
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F23" s="10">
+        <v>15250</v>
+      </c>
+      <c r="G23" s="10">
+        <v>15346</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="J23" s="8">
+        <v>12</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="8"/>
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F24" s="10">
+        <v>13660</v>
+      </c>
+      <c r="G24" s="10">
+        <v>13752</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="J24" s="8">
+        <v>12</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="8"/>
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F25" s="10">
+        <v>15990</v>
+      </c>
+      <c r="G25" s="10">
+        <v>16086</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="J25" s="8">
+        <v>12</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="8"/>
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F26" s="10">
+        <v>15770</v>
+      </c>
+      <c r="G26" s="10">
+        <v>15866</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="J26" s="8">
+        <v>12</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="8"/>
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F27" s="10">
+        <v>16140</v>
+      </c>
+      <c r="G27" s="10">
+        <v>16236</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="J27" s="8">
+        <v>12</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="8"/>
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F28" s="10">
+        <v>13540</v>
+      </c>
+      <c r="G28" s="10">
+        <v>13632</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="J28" s="8">
+        <v>12</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="8"/>
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F29" s="10">
+        <v>13640</v>
+      </c>
+      <c r="G29" s="10">
+        <v>13732</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="J29" s="8">
+        <v>12</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="8"/>
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F30" s="10">
+        <v>16470</v>
+      </c>
+      <c r="G30" s="10">
+        <v>16566</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="J30" s="8">
+        <v>12</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="8"/>
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F31" s="10">
+        <v>16520</v>
+      </c>
+      <c r="G31" s="10">
+        <v>16616</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="J31" s="8">
+        <v>12</v>
+      </c>
       <c r="K31" s="2"/>
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="8"/>
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F32" s="10">
+        <v>15660</v>
+      </c>
+      <c r="G32" s="10">
+        <v>15756</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="J32" s="8">
+        <v>12</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="8"/>
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F33" s="10">
+        <v>16120</v>
+      </c>
+      <c r="G33" s="10">
+        <v>16216</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="J33" s="8">
+        <v>12</v>
+      </c>
       <c r="K33" s="2"/>
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="8"/>
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F34" s="10">
+        <v>15190</v>
+      </c>
+      <c r="G34" s="10">
+        <v>15286</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="J34" s="8">
+        <v>12</v>
+      </c>
       <c r="K34" s="2"/>
       <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="8"/>
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F35" s="10">
+        <v>15070</v>
+      </c>
+      <c r="G35" s="10">
+        <v>15166</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="J35" s="8">
+        <v>12</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="8"/>
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F36" s="10">
+        <v>16410</v>
+      </c>
+      <c r="G36" s="10">
+        <v>16506</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="J36" s="8">
+        <v>12</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="8"/>
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F37" s="10">
+        <v>14070</v>
+      </c>
+      <c r="G37" s="10">
+        <v>14162</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="J37" s="8">
+        <v>12</v>
+      </c>
       <c r="K37" s="2"/>
       <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="8"/>
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F38" s="10">
+        <v>11590</v>
+      </c>
+      <c r="G38" s="10">
+        <v>11678</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="J38" s="8">
+        <v>12</v>
+      </c>
       <c r="K38" s="2"/>
       <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="8"/>
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F39" s="10">
+        <v>16250</v>
+      </c>
+      <c r="G39" s="10">
+        <v>16346</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="J39" s="8">
+        <v>12</v>
+      </c>
       <c r="K39" s="2"/>
       <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="8"/>
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F40" s="10">
+        <v>16080</v>
+      </c>
+      <c r="G40" s="10">
+        <v>16176</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
+      <c r="J40" s="8">
+        <v>12</v>
+      </c>
       <c r="K40" s="2"/>
       <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="8"/>
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F41" s="10">
+        <v>14760</v>
+      </c>
+      <c r="G41" s="10">
+        <v>14852</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
+      <c r="J41" s="8">
+        <v>12</v>
+      </c>
       <c r="K41" s="2"/>
       <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="8"/>
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F42" s="10">
+        <v>16250</v>
+      </c>
+      <c r="G42" s="10">
+        <v>16346</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
+      <c r="J42" s="8">
+        <v>12</v>
+      </c>
       <c r="K42" s="2"/>
       <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="8"/>
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E43" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F43" s="10">
+        <v>16480</v>
+      </c>
+      <c r="G43" s="10">
+        <v>16576</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
+      <c r="J43" s="8">
+        <v>12</v>
+      </c>
       <c r="K43" s="2"/>
       <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="8"/>
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F44" s="10">
+        <v>15080</v>
+      </c>
+      <c r="G44" s="10">
+        <v>15176</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
+      <c r="J44" s="8">
+        <v>12</v>
+      </c>
       <c r="K44" s="2"/>
       <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="8"/>
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E45" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F45" s="10">
+        <v>12930</v>
+      </c>
+      <c r="G45" s="10">
+        <v>13018</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
+      <c r="J45" s="8">
+        <v>12</v>
+      </c>
       <c r="K45" s="2"/>
       <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="8"/>
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E46" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F46" s="10">
+        <v>16090</v>
+      </c>
+      <c r="G46" s="10">
+        <v>16186</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
+      <c r="J46" s="8">
+        <v>12</v>
+      </c>
       <c r="K46" s="2"/>
       <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="8"/>
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E47" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F47" s="10">
+        <v>16660</v>
+      </c>
+      <c r="G47" s="10">
+        <v>16756</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
+      <c r="J47" s="8">
+        <v>12</v>
+      </c>
       <c r="K47" s="2"/>
       <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="8"/>
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E48" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F48" s="10">
+        <v>16350</v>
+      </c>
+      <c r="G48" s="10">
+        <v>16446</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
+      <c r="J48" s="8">
+        <v>12</v>
+      </c>
       <c r="K48" s="2"/>
       <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="8"/>
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E49" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F49" s="10">
+        <v>15340</v>
+      </c>
+      <c r="G49" s="10">
+        <v>15436</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
+      <c r="J49" s="8">
+        <v>12</v>
+      </c>
       <c r="K49" s="2"/>
       <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="8"/>
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F50" s="10">
+        <v>16500</v>
+      </c>
+      <c r="G50" s="10">
+        <v>16596</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
+      <c r="J50" s="8">
+        <v>12</v>
+      </c>
       <c r="K50" s="2"/>
       <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="8"/>
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E51" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F51" s="10">
+        <v>16470</v>
+      </c>
+      <c r="G51" s="10">
+        <v>16566</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
+      <c r="J51" s="8">
+        <v>12</v>
+      </c>
       <c r="K51" s="2"/>
       <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="8"/>
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E52" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F52" s="10">
+        <v>12730</v>
+      </c>
+      <c r="G52" s="10">
+        <v>12818</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
+      <c r="J52" s="8">
+        <v>12</v>
+      </c>
       <c r="K52" s="2"/>
       <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="8"/>
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E53" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F53" s="10">
+        <v>16480</v>
+      </c>
+      <c r="G53" s="10">
+        <v>16576</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
+      <c r="J53" s="8">
+        <v>12</v>
+      </c>
       <c r="K53" s="2"/>
       <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="8"/>
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E54" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F54" s="10">
+        <v>16650</v>
+      </c>
+      <c r="G54" s="10">
+        <v>16746</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
+      <c r="J54" s="8">
+        <v>12</v>
+      </c>
       <c r="K54" s="2"/>
       <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="8"/>
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F55" s="10">
+        <v>12040</v>
+      </c>
+      <c r="G55" s="10">
+        <v>12128</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
+      <c r="J55" s="8">
+        <v>12</v>
+      </c>
       <c r="K55" s="2"/>
       <c r="L55" s="7"/>
     </row>
     <row r="56" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="8"/>
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E56" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F56" s="10">
+        <v>10360</v>
+      </c>
+      <c r="G56" s="10">
+        <v>10444</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
+      <c r="J56" s="8">
+        <v>12</v>
+      </c>
       <c r="K56" s="2"/>
       <c r="L56" s="7"/>
     </row>
     <row r="57" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="8"/>
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E57" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F57" s="10">
+        <v>16350</v>
+      </c>
+      <c r="G57" s="10">
+        <v>16446</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
+      <c r="J57" s="8">
+        <v>12</v>
+      </c>
       <c r="K57" s="2"/>
       <c r="L57" s="7"/>
     </row>
     <row r="58" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="8"/>
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E58" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F58" s="10">
+        <v>11590</v>
+      </c>
+      <c r="G58" s="10">
+        <v>11678</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
+      <c r="J58" s="8">
+        <v>12</v>
+      </c>
       <c r="K58" s="2"/>
       <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="8"/>
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E59" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F59" s="10">
+        <v>16380</v>
+      </c>
+      <c r="G59" s="10">
+        <v>16476</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
+      <c r="J59" s="8">
+        <v>12</v>
+      </c>
       <c r="K59" s="2"/>
       <c r="L59" s="7"/>
     </row>
     <row r="60" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="8"/>
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E60" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F60" s="10">
+        <v>16480</v>
+      </c>
+      <c r="G60" s="10">
+        <v>16576</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
+      <c r="J60" s="8">
+        <v>12</v>
+      </c>
       <c r="K60" s="2"/>
       <c r="L60" s="7"/>
     </row>
     <row r="61" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="8"/>
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E61" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F61" s="10">
+        <v>11570</v>
+      </c>
+      <c r="G61" s="10">
+        <v>11658</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
+      <c r="J61" s="8">
+        <v>12</v>
+      </c>
       <c r="K61" s="2"/>
       <c r="L61" s="7"/>
     </row>
     <row r="62" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="8"/>
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E62" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F62" s="10">
+        <v>12760</v>
+      </c>
+      <c r="G62" s="10">
+        <v>12848</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
+      <c r="J62" s="8">
+        <v>12</v>
+      </c>
       <c r="K62" s="2"/>
       <c r="L62" s="7"/>
     </row>
     <row r="63" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="8"/>
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E63" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F63" s="10">
+        <v>12290</v>
+      </c>
+      <c r="G63" s="10">
+        <v>12378</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
+      <c r="J63" s="8">
+        <v>12</v>
+      </c>
       <c r="K63" s="2"/>
       <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="8"/>
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E64" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F64" s="10">
+        <v>9600</v>
+      </c>
+      <c r="G64" s="10">
+        <v>9684</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
+      <c r="J64" s="8">
+        <v>12</v>
+      </c>
       <c r="K64" s="2"/>
       <c r="L64" s="7"/>
     </row>
     <row r="65" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="8"/>
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E65" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F65" s="10">
+        <v>16250</v>
+      </c>
+      <c r="G65" s="10">
+        <v>16346</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
+      <c r="J65" s="8">
+        <v>12</v>
+      </c>
       <c r="K65" s="2"/>
       <c r="L65" s="7"/>
     </row>
     <row r="66" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="8"/>
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E66" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F66" s="10">
+        <v>16270</v>
+      </c>
+      <c r="G66" s="10">
+        <v>16366</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
+      <c r="J66" s="8">
+        <v>12</v>
+      </c>
       <c r="K66" s="2"/>
       <c r="L66" s="7"/>
     </row>
     <row r="67" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="8"/>
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E67" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F67" s="10">
+        <v>15800</v>
+      </c>
+      <c r="G67" s="10">
+        <v>15896</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
+      <c r="J67" s="8">
+        <v>12</v>
+      </c>
       <c r="K67" s="2"/>
       <c r="L67" s="7"/>
     </row>
     <row r="68" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="8"/>
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E68" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F68" s="10">
+        <v>12960</v>
+      </c>
+      <c r="G68" s="10">
+        <v>13048</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
+      <c r="J68" s="8">
+        <v>12</v>
+      </c>
       <c r="K68" s="2"/>
       <c r="L68" s="7"/>
     </row>
     <row r="69" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="8"/>
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E69" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F69" s="10">
+        <v>9520</v>
+      </c>
+      <c r="G69" s="10">
+        <v>9604</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
+      <c r="J69" s="8">
+        <v>12</v>
+      </c>
       <c r="K69" s="2"/>
       <c r="L69" s="7"/>
     </row>
     <row r="70" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="8"/>
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E70" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F70" s="10">
+        <v>16700</v>
+      </c>
+      <c r="G70" s="10">
+        <v>16796</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
+      <c r="J70" s="8">
+        <v>12</v>
+      </c>
       <c r="K70" s="2"/>
       <c r="L70" s="7"/>
     </row>
     <row r="71" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="8"/>
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E71" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F71" s="10">
+        <v>12290</v>
+      </c>
+      <c r="G71" s="10">
+        <v>12378</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
+      <c r="J71" s="8">
+        <v>12</v>
+      </c>
       <c r="K71" s="2"/>
       <c r="L71" s="7"/>
     </row>
     <row r="72" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="8"/>
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E72" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F72" s="10">
+        <v>16260</v>
+      </c>
+      <c r="G72" s="10">
+        <v>16356</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
+      <c r="J72" s="8">
+        <v>12</v>
+      </c>
       <c r="K72" s="2"/>
       <c r="L72" s="7"/>
     </row>
     <row r="73" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="8"/>
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E73" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F73" s="10">
+        <v>16230</v>
+      </c>
+      <c r="G73" s="10">
+        <v>16326</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
+      <c r="J73" s="8">
+        <v>12</v>
+      </c>
       <c r="K73" s="2"/>
       <c r="L73" s="7"/>
     </row>
     <row r="74" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="8"/>
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E74" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F74" s="10">
+        <v>12820</v>
+      </c>
+      <c r="G74" s="10">
+        <v>12908</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
+      <c r="J74" s="8">
+        <v>12</v>
+      </c>
       <c r="K74" s="2"/>
       <c r="L74" s="7"/>
     </row>
     <row r="75" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="8"/>
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E75" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F75" s="10">
+        <v>16640</v>
+      </c>
+      <c r="G75" s="10">
+        <v>16736</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
+      <c r="J75" s="8">
+        <v>12</v>
+      </c>
       <c r="K75" s="2"/>
       <c r="L75" s="7"/>
     </row>
     <row r="76" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="8"/>
+      <c r="A76" s="8">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E76" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F76" s="10">
+        <v>8980</v>
+      </c>
+      <c r="G76" s="10">
+        <v>9059</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
+      <c r="J76" s="8">
+        <v>12</v>
+      </c>
       <c r="K76" s="2"/>
       <c r="L76" s="7"/>
     </row>
     <row r="77" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="8"/>
+      <c r="A77" s="8">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E77" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F77" s="10">
+        <v>10530</v>
+      </c>
+      <c r="G77" s="10">
+        <v>10614</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
+      <c r="J77" s="8">
+        <v>12</v>
+      </c>
       <c r="K77" s="2"/>
       <c r="L77" s="7"/>
     </row>
     <row r="78" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="8"/>
+      <c r="A78" s="8">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E78" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F78" s="10">
+        <v>15210</v>
+      </c>
+      <c r="G78" s="10">
+        <v>15306</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
+      <c r="J78" s="8">
+        <v>12</v>
+      </c>
       <c r="K78" s="2"/>
       <c r="L78" s="7"/>
     </row>
     <row r="79" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="8"/>
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E79" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F79" s="10">
+        <v>12130</v>
+      </c>
+      <c r="G79" s="10">
+        <v>12218</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
+      <c r="J79" s="8">
+        <v>12</v>
+      </c>
       <c r="K79" s="2"/>
       <c r="L79" s="7"/>
     </row>
     <row r="80" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="8"/>
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E80" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F80" s="10">
+        <v>15130</v>
+      </c>
+      <c r="G80" s="10">
+        <v>15226</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
+      <c r="J80" s="8">
+        <v>12</v>
+      </c>
       <c r="K80" s="2"/>
       <c r="L80" s="7"/>
     </row>
     <row r="81" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="8"/>
+      <c r="A81" s="8">
+        <v>80</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E81" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F81" s="10">
+        <v>16360</v>
+      </c>
+      <c r="G81" s="10">
+        <v>16456</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
+      <c r="J81" s="8">
+        <v>12</v>
+      </c>
       <c r="K81" s="2"/>
       <c r="L81" s="7"/>
     </row>
     <row r="82" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="8"/>
+      <c r="A82" s="8">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E82" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F82" s="10">
+        <v>16240</v>
+      </c>
+      <c r="G82" s="10">
+        <v>16336</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
+      <c r="J82" s="8">
+        <v>12</v>
+      </c>
       <c r="K82" s="2"/>
       <c r="L82" s="7"/>
     </row>
     <row r="83" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="8"/>
+      <c r="A83" s="8">
+        <v>82</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E83" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F83" s="10">
+        <v>15560</v>
+      </c>
+      <c r="G83" s="10">
+        <v>15656</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
+      <c r="J83" s="8">
+        <v>12</v>
+      </c>
       <c r="K83" s="2"/>
       <c r="L83" s="7"/>
     </row>
     <row r="84" spans="1:13" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="8"/>
+      <c r="A84" s="8">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E84" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F84" s="10">
+        <v>15820</v>
+      </c>
+      <c r="G84" s="10">
+        <v>15916</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
+      <c r="J84" s="8">
+        <v>12</v>
+      </c>
       <c r="K84" s="2"/>
       <c r="M84" s="5"/>
     </row>
     <row r="85" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="8"/>
+      <c r="A85" s="8">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E85" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F85" s="10">
+        <v>13980</v>
+      </c>
+      <c r="G85" s="10">
+        <v>14072</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
+      <c r="J85" s="8">
+        <v>12</v>
+      </c>
       <c r="K85" s="2"/>
       <c r="L85" s="7"/>
     </row>
     <row r="86" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="8"/>
+      <c r="A86" s="8">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E86" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F86" s="10">
+        <v>16640</v>
+      </c>
+      <c r="G86" s="10">
+        <v>16736</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
+      <c r="J86" s="8">
+        <v>12</v>
+      </c>
       <c r="K86" s="2"/>
       <c r="L86" s="7"/>
     </row>
     <row r="87" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="8"/>
+      <c r="A87" s="8">
+        <v>86</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E87" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F87" s="10">
+        <v>12010</v>
+      </c>
+      <c r="G87" s="10">
+        <v>12098</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
+      <c r="J87" s="8">
+        <v>12</v>
+      </c>
       <c r="K87" s="2"/>
       <c r="L87" s="7"/>
     </row>
     <row r="88" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="8"/>
+      <c r="A88" s="8">
+        <v>87</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E88" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F88" s="10">
+        <v>15920</v>
+      </c>
+      <c r="G88" s="10">
+        <v>16016</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
+      <c r="J88" s="8">
+        <v>12</v>
+      </c>
       <c r="K88" s="2"/>
       <c r="L88" s="7"/>
     </row>
     <row r="89" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="8"/>
+      <c r="A89" s="8">
+        <v>88</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E89" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F89" s="10">
+        <v>11730</v>
+      </c>
+      <c r="G89" s="10">
+        <v>11818</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
+      <c r="J89" s="8">
+        <v>12</v>
+      </c>
       <c r="K89" s="2"/>
       <c r="L89" s="7"/>
     </row>
     <row r="90" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="8"/>
+      <c r="A90" s="8">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E90" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F90" s="10">
+        <v>16490</v>
+      </c>
+      <c r="G90" s="10">
+        <v>16586</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
+      <c r="J90" s="8">
+        <v>12</v>
+      </c>
       <c r="K90" s="2"/>
       <c r="L90" s="7"/>
     </row>
     <row r="91" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="8"/>
+      <c r="A91" s="8">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E91" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F91" s="10">
+        <v>13020</v>
+      </c>
+      <c r="G91" s="10">
+        <v>13112</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
+      <c r="J91" s="8">
+        <v>12</v>
+      </c>
       <c r="K91" s="2"/>
       <c r="L91" s="7"/>
     </row>
     <row r="92" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="8"/>
+      <c r="A92" s="8">
+        <v>91</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E92" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F92" s="10">
+        <v>13190</v>
+      </c>
+      <c r="G92" s="10">
+        <v>13282</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
+      <c r="J92" s="8">
+        <v>12</v>
+      </c>
       <c r="K92" s="2"/>
       <c r="L92" s="7"/>
     </row>
     <row r="93" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="8"/>
+      <c r="A93" s="8">
+        <v>92</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E93" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F93" s="10">
+        <v>16510</v>
+      </c>
+      <c r="G93" s="10">
+        <v>16606</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
+      <c r="J93" s="8">
+        <v>12</v>
+      </c>
       <c r="K93" s="2"/>
       <c r="L93" s="7"/>
     </row>
     <row r="94" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="8"/>
+      <c r="A94" s="8">
+        <v>93</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E94" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F94" s="10">
+        <v>16280</v>
+      </c>
+      <c r="G94" s="10">
+        <v>16376</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
+      <c r="J94" s="8">
+        <v>12</v>
+      </c>
       <c r="K94" s="2"/>
       <c r="L94" s="7"/>
     </row>
     <row r="95" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="8"/>
+      <c r="A95" s="8">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E95" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F95" s="10">
+        <v>16570</v>
+      </c>
+      <c r="G95" s="10">
+        <v>16666</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
+      <c r="J95" s="8">
+        <v>12</v>
+      </c>
       <c r="K95" s="2"/>
       <c r="L95" s="7"/>
     </row>
     <row r="96" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="8"/>
+      <c r="A96" s="8">
+        <v>95</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E96" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F96" s="10">
+        <v>15200</v>
+      </c>
+      <c r="G96" s="10">
+        <v>15296</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
+      <c r="J96" s="8">
+        <v>12</v>
+      </c>
       <c r="K96" s="2"/>
       <c r="L96" s="7"/>
     </row>
     <row r="97" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="8"/>
+      <c r="A97" s="8">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E97" s="9">
+        <v>1585</v>
+      </c>
+      <c r="F97" s="10">
+        <v>14160</v>
+      </c>
+      <c r="G97" s="10">
+        <v>14252</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
+      <c r="J97" s="8">
+        <v>12</v>
+      </c>
       <c r="K97" s="2"/>
       <c r="L97" s="7"/>
     </row>
     <row r="98" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="8"/>
+      <c r="A98" s="8">
+        <v>97</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="E98" s="9">
+        <v>1165</v>
+      </c>
+      <c r="F98" s="10">
+        <v>12630</v>
+      </c>
+      <c r="G98" s="10">
+        <v>12715</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
+      <c r="J98" s="8">
+        <v>12</v>
+      </c>
       <c r="K98" s="2"/>
       <c r="L98" s="7"/>
     </row>
     <row r="99" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="8"/>
+      <c r="A99" s="8">
+        <v>98</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="E99" s="9">
+        <v>1165</v>
+      </c>
+      <c r="F99" s="10">
+        <v>13320</v>
+      </c>
+      <c r="G99" s="10">
+        <v>13409</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
+      <c r="J99" s="8">
+        <v>12</v>
+      </c>
       <c r="K99" s="2"/>
       <c r="L99" s="7"/>
     </row>
     <row r="100" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="8"/>
+      <c r="A100" s="8">
+        <v>99</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="E100" s="9">
+        <v>1165</v>
+      </c>
+      <c r="F100" s="10">
+        <v>13800</v>
+      </c>
+      <c r="G100" s="10">
+        <v>13889</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
+      <c r="J100" s="8">
+        <v>12</v>
+      </c>
       <c r="K100" s="2"/>
       <c r="L100" s="7"/>
     </row>
     <row r="101" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="8"/>
+      <c r="A101" s="8">
+        <v>100</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="E101" s="9">
+        <v>1165</v>
+      </c>
+      <c r="F101" s="10">
+        <v>13880</v>
+      </c>
+      <c r="G101" s="10">
+        <v>13969</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
+      <c r="J101" s="8">
+        <v>12</v>
+      </c>
       <c r="K101" s="2"/>
       <c r="L101" s="7"/>
     </row>
     <row r="102" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="8"/>
+      <c r="A102" s="8">
+        <v>101</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="E102" s="9">
+        <v>1165</v>
+      </c>
+      <c r="F102" s="10">
+        <v>15400</v>
+      </c>
+      <c r="G102" s="10">
+        <v>15493</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
+      <c r="J102" s="8">
+        <v>12</v>
+      </c>
       <c r="K102" s="2"/>
       <c r="L102" s="7"/>
     </row>
     <row r="103" spans="1:13" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="8"/>
+      <c r="A103" s="8">
+        <v>102</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="E103" s="9">
+        <v>1165</v>
+      </c>
+      <c r="F103" s="10">
+        <v>14040</v>
+      </c>
+      <c r="G103" s="10">
+        <v>14129</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
+      <c r="J103" s="8">
+        <v>12</v>
+      </c>
       <c r="K103" s="2"/>
       <c r="L103" s="7"/>
     </row>
@@ -37256,26 +39413,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f8d30160-d838-46fa-b375-f2886a9888f1"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="178ff7b3-1c7c-4caa-b6bc-b9448c65d779">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010052CA183F85819640B5A6A89111D1C08B" ma:contentTypeVersion="6643" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eefca48634ea730956df4e0624e5e437">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f8d30160-d838-46fa-b375-f2886a9888f1" xmlns:ns3="178ff7b3-1c7c-4caa-b6bc-b9448c65d779" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b3541ef74f95de235e216cef7c922eb" ns2:_="" ns3:_="">
     <xsd:import namespace="f8d30160-d838-46fa-b375-f2886a9888f1"/>
@@ -37555,6 +39692,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f8d30160-d838-46fa-b375-f2886a9888f1"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="178ff7b3-1c7c-4caa-b6bc-b9448c65d779">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715D7AF5-2267-4E99-8E42-595F74CE3DE2}">
   <ds:schemaRefs>
@@ -37564,25 +39721,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FDAE8A2-199F-4322-A3FE-18A3D934E985}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f8d30160-d838-46fa-b375-f2886a9888f1"/>
-    <ds:schemaRef ds:uri="178ff7b3-1c7c-4caa-b6bc-b9448c65d779"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C577670-5EAA-4A60-B99B-5F34467E25C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{850A5E4B-B5B8-4486-90EE-9E3470A185DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37599,4 +39737,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C577670-5EAA-4A60-B99B-5F34467E25C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FDAE8A2-199F-4322-A3FE-18A3D934E985}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f8d30160-d838-46fa-b375-f2886a9888f1"/>
+    <ds:schemaRef ds:uri="178ff7b3-1c7c-4caa-b6bc-b9448c65d779"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Upload\Draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB38CEC9-BD53-428E-ADBE-885D88E35C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2542A3F-7EC1-4680-A602-5B3C31449DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{02814C34-B676-419B-8961-6A5169E2E00A}"/>
   </bookViews>
   <sheets>
     <sheet name="PNR" sheetId="1" r:id="rId1"/>
+    <sheet name="VEH" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PNR!$A$1:$J$279</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="965">
   <si>
     <t>S.NO</t>
   </si>
@@ -2413,6 +2414,525 @@
   </si>
   <si>
     <t>KGN992C</t>
+  </si>
+  <si>
+    <t>VEHICLE NO</t>
+  </si>
+  <si>
+    <t>TRANSPORTER</t>
+  </si>
+  <si>
+    <t>TN04AW2101</t>
+  </si>
+  <si>
+    <t>MPT</t>
+  </si>
+  <si>
+    <t>TN28AK9553</t>
+  </si>
+  <si>
+    <t>SCT</t>
+  </si>
+  <si>
+    <t>TN03U0432</t>
+  </si>
+  <si>
+    <t>TN03AK4559</t>
+  </si>
+  <si>
+    <t>MST</t>
+  </si>
+  <si>
+    <t>TN04AJ6984</t>
+  </si>
+  <si>
+    <t>TN03U1410</t>
+  </si>
+  <si>
+    <t>TN28BD1127</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>TN01AJ8260</t>
+  </si>
+  <si>
+    <t>SKT</t>
+  </si>
+  <si>
+    <t>TN28BA6503</t>
+  </si>
+  <si>
+    <t>TN28AC1488</t>
+  </si>
+  <si>
+    <t>TN04P4876</t>
+  </si>
+  <si>
+    <t>MSMD</t>
+  </si>
+  <si>
+    <t>TN04AR8141</t>
+  </si>
+  <si>
+    <t>GWS</t>
+  </si>
+  <si>
+    <t>TN88J0902</t>
+  </si>
+  <si>
+    <t>TN04AK3710</t>
+  </si>
+  <si>
+    <t>ASST</t>
+  </si>
+  <si>
+    <t>TN88A6013</t>
+  </si>
+  <si>
+    <t>SAI</t>
+  </si>
+  <si>
+    <t>TN18R1284</t>
+  </si>
+  <si>
+    <t>SJS</t>
+  </si>
+  <si>
+    <t>TN04AW3871</t>
+  </si>
+  <si>
+    <t>TN03T4273</t>
+  </si>
+  <si>
+    <t>TN04AR3918</t>
+  </si>
+  <si>
+    <t>TN04AJ6982</t>
+  </si>
+  <si>
+    <t>TN88D7060</t>
+  </si>
+  <si>
+    <t>TN28AC7959</t>
+  </si>
+  <si>
+    <t>TN28AL5969</t>
+  </si>
+  <si>
+    <t>TN88H1179</t>
+  </si>
+  <si>
+    <t>TN04AY8968</t>
+  </si>
+  <si>
+    <t>TN04AJ9783</t>
+  </si>
+  <si>
+    <t>TN18R1273</t>
+  </si>
+  <si>
+    <t>TN04AK0675</t>
+  </si>
+  <si>
+    <t>TN04BD9889</t>
+  </si>
+  <si>
+    <t>TN28AB9381</t>
+  </si>
+  <si>
+    <t>TN04AQ9135</t>
+  </si>
+  <si>
+    <t>TN03T4204</t>
+  </si>
+  <si>
+    <t>TN03J6473</t>
+  </si>
+  <si>
+    <t>TN04AR5798</t>
+  </si>
+  <si>
+    <t>TN23CB2635</t>
+  </si>
+  <si>
+    <t>TN28BD2385</t>
+  </si>
+  <si>
+    <t>TN18AA4482</t>
+  </si>
+  <si>
+    <t>TN28AC8699</t>
+  </si>
+  <si>
+    <t>TN03J1612</t>
+  </si>
+  <si>
+    <t>TN18AF2706</t>
+  </si>
+  <si>
+    <t>TN18AC8998</t>
+  </si>
+  <si>
+    <t>TN03AK4570</t>
+  </si>
+  <si>
+    <t>TN03J6475</t>
+  </si>
+  <si>
+    <t>TN28AF9779</t>
+  </si>
+  <si>
+    <t>TN28AK2782</t>
+  </si>
+  <si>
+    <t>TN28AK6521</t>
+  </si>
+  <si>
+    <t>TN04AT8260</t>
+  </si>
+  <si>
+    <t>TN88J4379</t>
+  </si>
+  <si>
+    <t>TN28AK1342</t>
+  </si>
+  <si>
+    <t>TN88L1342</t>
+  </si>
+  <si>
+    <t>TN88A6989</t>
+  </si>
+  <si>
+    <t>TN04AJ2180</t>
+  </si>
+  <si>
+    <t>SVT</t>
+  </si>
+  <si>
+    <t>TN04AH4033</t>
+  </si>
+  <si>
+    <t>TN28AJ5769</t>
+  </si>
+  <si>
+    <t>TN876203</t>
+  </si>
+  <si>
+    <t>TN04AY7600</t>
+  </si>
+  <si>
+    <t>TN12AJ8235</t>
+  </si>
+  <si>
+    <t>TN28AR7105</t>
+  </si>
+  <si>
+    <t>TN03H9516</t>
+  </si>
+  <si>
+    <t>TN04BC9734</t>
+  </si>
+  <si>
+    <t>TN88E6287</t>
+  </si>
+  <si>
+    <t>TN04AJ0423</t>
+  </si>
+  <si>
+    <t>TN28AC9879</t>
+  </si>
+  <si>
+    <t>TN04AH3326</t>
+  </si>
+  <si>
+    <t>TN28AJ6429</t>
+  </si>
+  <si>
+    <t>TN04AS5526</t>
+  </si>
+  <si>
+    <t>TN03AK8283</t>
+  </si>
+  <si>
+    <t>TN04AJ6985</t>
+  </si>
+  <si>
+    <t>TN04AQ9160</t>
+  </si>
+  <si>
+    <t>TN04AH3537</t>
+  </si>
+  <si>
+    <t>TN88L3153</t>
+  </si>
+  <si>
+    <t>TN88H3947</t>
+  </si>
+  <si>
+    <t>TN88A5189</t>
+  </si>
+  <si>
+    <t>TN04AB5676</t>
+  </si>
+  <si>
+    <t>TN04AQ6549</t>
+  </si>
+  <si>
+    <t>TN28AK9516</t>
+  </si>
+  <si>
+    <t>TN28AH6933</t>
+  </si>
+  <si>
+    <t>TN03J1372</t>
+  </si>
+  <si>
+    <t>TN47AB1215</t>
+  </si>
+  <si>
+    <t>TN28AQ9203</t>
+  </si>
+  <si>
+    <t>TN04AS5562</t>
+  </si>
+  <si>
+    <t>TN88C0938</t>
+  </si>
+  <si>
+    <t>TN88J8770</t>
+  </si>
+  <si>
+    <t>TN04AS5572</t>
+  </si>
+  <si>
+    <t>TN18AE2706</t>
+  </si>
+  <si>
+    <t>TN04AQ9141</t>
+  </si>
+  <si>
+    <t>TN04AS5517</t>
+  </si>
+  <si>
+    <t>TN04AM7632</t>
+  </si>
+  <si>
+    <t>TN28BD2389</t>
+  </si>
+  <si>
+    <t>TN04AR166</t>
+  </si>
+  <si>
+    <t>TN04AR8187</t>
+  </si>
+  <si>
+    <t>TN01AT8260</t>
+  </si>
+  <si>
+    <t>TN03AK4523</t>
+  </si>
+  <si>
+    <t>TN04AS8874</t>
+  </si>
+  <si>
+    <t>TN04AR7043</t>
+  </si>
+  <si>
+    <t>TN04AR8166</t>
+  </si>
+  <si>
+    <t>TN18BH8581</t>
+  </si>
+  <si>
+    <t>TN28AK6429</t>
+  </si>
+  <si>
+    <t>TN04AR7024</t>
+  </si>
+  <si>
+    <t>TN04AR8209</t>
+  </si>
+  <si>
+    <t>TN88L153</t>
+  </si>
+  <si>
+    <t>TN04AR8145</t>
+  </si>
+  <si>
+    <t>TN28AL9212</t>
+  </si>
+  <si>
+    <t>TN04AR8167</t>
+  </si>
+  <si>
+    <t>TN04BD5959</t>
+  </si>
+  <si>
+    <t>TN04AR3710</t>
+  </si>
+  <si>
+    <t>TN28AD9199</t>
+  </si>
+  <si>
+    <t>TN04AR0358</t>
+  </si>
+  <si>
+    <t>TN18AQE2706</t>
+  </si>
+  <si>
+    <t>TN04AS5548</t>
+  </si>
+  <si>
+    <t>TN04AY7520</t>
+  </si>
+  <si>
+    <t>TN28BA1849</t>
+  </si>
+  <si>
+    <t>TN04AH8856</t>
+  </si>
+  <si>
+    <t>TN04AB9709</t>
+  </si>
+  <si>
+    <t>TN04BC9812</t>
+  </si>
+  <si>
+    <t>TN28BF2542</t>
+  </si>
+  <si>
+    <t>TN04AJK3710</t>
+  </si>
+  <si>
+    <t>TN18AB5126</t>
+  </si>
+  <si>
+    <t>TN04BD5999</t>
+  </si>
+  <si>
+    <t>TN87C5341</t>
+  </si>
+  <si>
+    <t>TN88L5807</t>
+  </si>
+  <si>
+    <t>TN28AA5803</t>
+  </si>
+  <si>
+    <t>TN28AH5731</t>
+  </si>
+  <si>
+    <t>TN04AX7641</t>
+  </si>
+  <si>
+    <t>TN88F1904</t>
+  </si>
+  <si>
+    <t>TN28AH6597</t>
+  </si>
+  <si>
+    <t>TN04AR8219</t>
+  </si>
+  <si>
+    <t>TN88L7427</t>
+  </si>
+  <si>
+    <t>TN28AH5459</t>
+  </si>
+  <si>
+    <t>TN04AP1488</t>
+  </si>
+  <si>
+    <t>TN18A1284</t>
+  </si>
+  <si>
+    <t>TN18B1273</t>
+  </si>
+  <si>
+    <t>TN18AB5216</t>
+  </si>
+  <si>
+    <t>TN04BA6332</t>
+  </si>
+  <si>
+    <t>TN28BC4182</t>
+  </si>
+  <si>
+    <t>TN88D8607</t>
+  </si>
+  <si>
+    <t>TN04AR5739</t>
+  </si>
+  <si>
+    <t>TN04AS8878</t>
+  </si>
+  <si>
+    <t>TN0AW3871</t>
+  </si>
+  <si>
+    <t>TN88D3751</t>
+  </si>
+  <si>
+    <t>TN04AR3909</t>
+  </si>
+  <si>
+    <t>TN04AR2739</t>
+  </si>
+  <si>
+    <t>TN04AR3674</t>
+  </si>
+  <si>
+    <t>TN04R8187</t>
+  </si>
+  <si>
+    <t>TN03H9799</t>
+  </si>
+  <si>
+    <t>TN88L7385</t>
+  </si>
+  <si>
+    <t>TN04AQ7162</t>
+  </si>
+  <si>
+    <t>TN28BL1569</t>
+  </si>
+  <si>
+    <t>TN21AJ5257</t>
+  </si>
+  <si>
+    <t>TN28AL1210</t>
+  </si>
+  <si>
+    <t>tn04ay7502</t>
+  </si>
+  <si>
+    <t>gws</t>
+  </si>
+  <si>
+    <t>TN04AM1314</t>
+  </si>
+  <si>
+    <t>TN03J6474</t>
+  </si>
+  <si>
+    <t>TN28BD2387</t>
+  </si>
+  <si>
+    <t>TN88L9619</t>
+  </si>
+  <si>
+    <t>TN28BD0330</t>
+  </si>
+  <si>
+    <t>TN0H9516</t>
+  </si>
+  <si>
+    <t>TN47AC2129</t>
+  </si>
+  <si>
+    <t>TN28AH0437</t>
   </si>
 </sst>
 </file>
@@ -2535,7 +3055,57 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2930,7 +3500,7 @@
   <dimension ref="A1:M3000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -52935,27 +53505,27 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B1:B69">
-    <cfRule type="duplicateValues" dxfId="8" priority="382" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="382" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="3" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="5" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="4" priority="389" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="12" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="9" priority="389" stopIfTrue="1">
       <formula>AND(COUNTIF($B$192:$B$65536, B1)+COUNTIF($B$1:$B$191, B1)&gt;1,NOT(ISBLANK(B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70:B106">
-    <cfRule type="duplicateValues" dxfId="3" priority="79" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="79" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B279">
-    <cfRule type="duplicateValues" dxfId="2" priority="381" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="381" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280:B423">
-    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B424:B3000">
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
@@ -52964,57 +53534,1818 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD05A935-F5E6-4D3F-A709-412F4CD64268}">
+  <dimension ref="A1:C160"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="8">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="8">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="8">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="8">
+        <v>80</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="8">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="8">
+        <v>82</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="8">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="8">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="8">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="8">
+        <v>86</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="8">
+        <v>87</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="8">
+        <v>88</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="8">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="8">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="8">
+        <v>91</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="8">
+        <v>92</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="8">
+        <v>93</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="8">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="8">
+        <v>95</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="8">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="8">
+        <v>97</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="8">
+        <v>98</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="8">
+        <v>99</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="8">
+        <v>100</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="8">
+        <v>101</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="8">
+        <v>102</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="8">
+        <v>103</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="8">
+        <v>104</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="8">
+        <v>105</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="8">
+        <v>106</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="8">
+        <v>107</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="8">
+        <v>108</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="8">
+        <v>109</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="8">
+        <v>110</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="8">
+        <v>111</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="8">
+        <v>112</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="8">
+        <v>113</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="8">
+        <v>114</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="8">
+        <v>115</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="8">
+        <v>116</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="8">
+        <v>117</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="8">
+        <v>118</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="8">
+        <v>119</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="8">
+        <v>120</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="8">
+        <v>121</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="8">
+        <v>122</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="8">
+        <v>123</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="8">
+        <v>124</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="8">
+        <v>125</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="8">
+        <v>126</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="8">
+        <v>127</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="8">
+        <v>128</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="8">
+        <v>129</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="8">
+        <v>130</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="8">
+        <v>131</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="8">
+        <v>132</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A134" s="8">
+        <v>133</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="8">
+        <v>134</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A136" s="8">
+        <v>135</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A137" s="8">
+        <v>136</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A138" s="8">
+        <v>137</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="8">
+        <v>138</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A140" s="8">
+        <v>139</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="8">
+        <v>140</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A142" s="8">
+        <v>141</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A143" s="8">
+        <v>142</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A144" s="8">
+        <v>143</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A145" s="8">
+        <v>144</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="8">
+        <v>145</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A147" s="8">
+        <v>146</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="8">
+        <v>147</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="8">
+        <v>148</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="8">
+        <v>149</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A151" s="8">
+        <v>150</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="8">
+        <v>151</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="8">
+        <v>152</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A154" s="8">
+        <v>153</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A155" s="8">
+        <v>154</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A156" s="8">
+        <v>155</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A157" s="8">
+        <v>156</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A158" s="8">
+        <v>157</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A159" s="8">
+        <v>158</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A160" s="8">
+        <v>159</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B160">
+    <cfRule type="duplicateValues" dxfId="4" priority="4" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B160">
+    <cfRule type="duplicateValues" dxfId="3" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>AND(COUNTIF($B$192:$B$65536, B1)+COUNTIF($B$1:$B$191, B1)&gt;1,NOT(ISBLANK(B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f8d30160-d838-46fa-b375-f2886a9888f1"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="178ff7b3-1c7c-4caa-b6bc-b9448c65d779">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010052CA183F85819640B5A6A89111D1C08B" ma:contentTypeVersion="6643" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eefca48634ea730956df4e0624e5e437">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f8d30160-d838-46fa-b375-f2886a9888f1" xmlns:ns3="178ff7b3-1c7c-4caa-b6bc-b9448c65d779" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b3541ef74f95de235e216cef7c922eb" ns2:_="" ns3:_="">
     <xsd:import namespace="f8d30160-d838-46fa-b375-f2886a9888f1"/>
@@ -53294,35 +55625,76 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f8d30160-d838-46fa-b375-f2886a9888f1"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="178ff7b3-1c7c-4caa-b6bc-b9448c65d779">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715D7AF5-2267-4E99-8E42-595F74CE3DE2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FDAE8A2-199F-4322-A3FE-18A3D934E985}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f8d30160-d838-46fa-b375-f2886a9888f1"/>
+    <ds:schemaRef ds:uri="178ff7b3-1c7c-4caa-b6bc-b9448c65d779"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C577670-5EAA-4A60-B99B-5F34467E25C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{850A5E4B-B5B8-4486-90EE-9E3470A185DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -53341,21 +55713,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C577670-5EAA-4A60-B99B-5F34467E25C0}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715D7AF5-2267-4E99-8E42-595F74CE3DE2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FDAE8A2-199F-4322-A3FE-18A3D934E985}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f8d30160-d838-46fa-b375-f2886a9888f1"/>
-    <ds:schemaRef ds:uri="178ff7b3-1c7c-4caa-b6bc-b9448c65d779"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22900,7 +22900,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -22924,6 +22924,24 @@
       <c r="F1" t="str">
         <v>Coil No</v>
       </c>
+      <c r="G1" t="str">
+        <v>SERIAL NO</v>
+      </c>
+      <c r="H1" t="str">
+        <v>DATE &amp; TIME</v>
+      </c>
+      <c r="I1" t="str">
+        <v>VEHICLE NO</v>
+      </c>
+      <c r="J1" t="str">
+        <v>MILL COIL NO</v>
+      </c>
+      <c r="K1" t="str">
+        <v>TRANSPORTER</v>
+      </c>
+      <c r="L1" t="str">
+        <v>GROSS WT</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -22985,9 +23003,69 @@
         <v>C069328B</v>
       </c>
     </row>
+    <row r="5">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <v>11-07-2025 2:09:53 PM</v>
+      </c>
+      <c r="I5" t="str">
+        <v>TN28BF2542</v>
+      </c>
+      <c r="J5" t="str">
+        <v>BCN2078C</v>
+      </c>
+      <c r="K5" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="L5">
+        <v>7455</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="str">
+        <v>11-07-2025 2:09:53 PM</v>
+      </c>
+      <c r="I6" t="str">
+        <v>TN28BF2542</v>
+      </c>
+      <c r="J6" t="str">
+        <v>C099796A</v>
+      </c>
+      <c r="K6" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="L6">
+        <v>10244</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="str">
+        <v>11-07-2025 2:09:53 PM</v>
+      </c>
+      <c r="I7" t="str">
+        <v>TN28BF2542</v>
+      </c>
+      <c r="J7" t="str">
+        <v>C063616B</v>
+      </c>
+      <c r="K7" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="L7">
+        <v>10881</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23044,9 +23044,69 @@
         <v>8554</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>11-07-2025 3:02:23 PM</v>
+      </c>
+      <c r="C8" t="str">
+        <v>TN28AC7959</v>
+      </c>
+      <c r="D8" t="str">
+        <v>BCN2078B</v>
+      </c>
+      <c r="E8" t="str">
+        <v>MSMD</v>
+      </c>
+      <c r="F8">
+        <v>7635</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>11-07-2025 3:02:23 PM</v>
+      </c>
+      <c r="C9" t="str">
+        <v>TN28AC7959</v>
+      </c>
+      <c r="D9" t="str">
+        <v>C074003B</v>
+      </c>
+      <c r="E9" t="str">
+        <v>MSMD</v>
+      </c>
+      <c r="F9">
+        <v>8594</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>11-07-2025 3:02:23 PM</v>
+      </c>
+      <c r="C10" t="str">
+        <v>TN28AC7959</v>
+      </c>
+      <c r="D10" t="str">
+        <v>C101291B</v>
+      </c>
+      <c r="E10" t="str">
+        <v>MSMD</v>
+      </c>
+      <c r="F10">
+        <v>9281</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23104,9 +23104,69 @@
         <v>9281</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>11-07-2025 3:15:44 PM</v>
+      </c>
+      <c r="C11" t="str">
+        <v>TN03U1410</v>
+      </c>
+      <c r="D11" t="str">
+        <v>BCM6772B</v>
+      </c>
+      <c r="E11" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F11">
+        <v>9965</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>11-07-2025 3:15:44 PM</v>
+      </c>
+      <c r="C12" t="str">
+        <v>TN03U1410</v>
+      </c>
+      <c r="D12" t="str">
+        <v>C063953A</v>
+      </c>
+      <c r="E12" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F12">
+        <v>10825</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>11-07-2025 3:15:44 PM</v>
+      </c>
+      <c r="C13" t="str">
+        <v>TN03U1410</v>
+      </c>
+      <c r="D13" t="str">
+        <v>C096391B</v>
+      </c>
+      <c r="E13" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F13">
+        <v>10351</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23164,9 +23164,69 @@
         <v>10351</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>11-07-2025 3:27:39 PM</v>
+      </c>
+      <c r="C14" t="str">
+        <v>TN28BF2542</v>
+      </c>
+      <c r="D14" t="str">
+        <v>BCM6772B</v>
+      </c>
+      <c r="E14" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F14">
+        <v>9965</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>11-07-2025 3:27:39 PM</v>
+      </c>
+      <c r="C15" t="str">
+        <v>TN28BF2542</v>
+      </c>
+      <c r="D15" t="str">
+        <v>C096391B</v>
+      </c>
+      <c r="E15" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F15">
+        <v>10351</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>11-07-2025 3:27:39 PM</v>
+      </c>
+      <c r="C16" t="str">
+        <v>TN28BF2542</v>
+      </c>
+      <c r="D16" t="str">
+        <v>C073932B</v>
+      </c>
+      <c r="E16" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F16">
+        <v>8034</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23224,9 +23224,69 @@
         <v>8034</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>11-07-2025 3:37:37 PM</v>
+      </c>
+      <c r="C17" t="str">
+        <v>TN03U0432</v>
+      </c>
+      <c r="D17" t="str">
+        <v>BCN9423B</v>
+      </c>
+      <c r="E17" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F17">
+        <v>10514</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>11-07-2025 3:37:37 PM</v>
+      </c>
+      <c r="C18" t="str">
+        <v>TN03U0432</v>
+      </c>
+      <c r="D18" t="str">
+        <v>C065864C</v>
+      </c>
+      <c r="E18" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F18">
+        <v>8474</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>11-07-2025 3:37:37 PM</v>
+      </c>
+      <c r="C19" t="str">
+        <v>TN03U0432</v>
+      </c>
+      <c r="D19" t="str">
+        <v>BCN2078C</v>
+      </c>
+      <c r="E19" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F19">
+        <v>7455</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23284,9 +23284,69 @@
         <v>7455</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20" t="str">
+        <v>13-07-2025 7:17:51 PM</v>
+      </c>
+      <c r="C20" t="str">
+        <v>TN04BD9889</v>
+      </c>
+      <c r="D20" t="str">
+        <v>BCL6727A</v>
+      </c>
+      <c r="E20" t="str">
+        <v>SJS</v>
+      </c>
+      <c r="F20">
+        <v>10802</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" t="str">
+        <v>13-07-2025 7:17:51 PM</v>
+      </c>
+      <c r="C21" t="str">
+        <v>TN04BD9889</v>
+      </c>
+      <c r="D21" t="str">
+        <v>C078765B</v>
+      </c>
+      <c r="E21" t="str">
+        <v>SJS</v>
+      </c>
+      <c r="F21">
+        <v>11669</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" t="str">
+        <v>13-07-2025 7:17:51 PM</v>
+      </c>
+      <c r="C22" t="str">
+        <v>TN04BD9889</v>
+      </c>
+      <c r="D22" t="str">
+        <v>BCM6898A</v>
+      </c>
+      <c r="E22" t="str">
+        <v>SJS</v>
+      </c>
+      <c r="F22">
+        <v>8885</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23286,67 +23286,47 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" t="str">
-        <v>13-07-2025 7:17:51 PM</v>
+        <v>13-07-2025 7:18:38 PM</v>
       </c>
       <c r="C20" t="str">
-        <v>TN04BD9889</v>
+        <v>TN04AR8167</v>
       </c>
       <c r="D20" t="str">
-        <v>BCL6727A</v>
+        <v>C101678B</v>
       </c>
       <c r="E20" t="str">
-        <v>SJS</v>
+        <v>GWS</v>
       </c>
       <c r="F20">
-        <v>10802</v>
+        <v>10398</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" t="str">
-        <v>13-07-2025 7:17:51 PM</v>
+        <v>13-07-2025 7:18:38 PM</v>
       </c>
       <c r="C21" t="str">
-        <v>TN04BD9889</v>
+        <v>TN04AR8167</v>
       </c>
       <c r="D21" t="str">
-        <v>C078765B</v>
+        <v>BCM6898A</v>
       </c>
       <c r="E21" t="str">
-        <v>SJS</v>
+        <v>GWS</v>
       </c>
       <c r="F21">
-        <v>11669</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>23</v>
-      </c>
-      <c r="B22" t="str">
-        <v>13-07-2025 7:17:51 PM</v>
-      </c>
-      <c r="C22" t="str">
-        <v>TN04BD9889</v>
-      </c>
-      <c r="D22" t="str">
-        <v>BCM6898A</v>
-      </c>
-      <c r="E22" t="str">
-        <v>SJS</v>
-      </c>
-      <c r="F22">
         <v>8885</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23324,9 +23324,49 @@
         <v>8885</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22">
+        <v>26</v>
+      </c>
+      <c r="B22" t="str">
+        <v>13-07-2025 8:04:06 PM</v>
+      </c>
+      <c r="C22" t="str">
+        <v>TN88J8770</v>
+      </c>
+      <c r="D22" t="str">
+        <v>C078765B</v>
+      </c>
+      <c r="E22" t="str">
+        <v>MSMD</v>
+      </c>
+      <c r="F22">
+        <v>11669</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>27</v>
+      </c>
+      <c r="B23" t="str">
+        <v>13-07-2025 8:04:06 PM</v>
+      </c>
+      <c r="C23" t="str">
+        <v>TN88J8770</v>
+      </c>
+      <c r="D23" t="str">
+        <v>C078813A</v>
+      </c>
+      <c r="E23" t="str">
+        <v>MSMD</v>
+      </c>
+      <c r="F23">
+        <v>11004</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F23"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23364,9 +23364,69 @@
         <v>11004</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="B24" t="str">
+        <v>13-07-2025 8:29:45 PM</v>
+      </c>
+      <c r="C24" t="str">
+        <v>TN28BF2542</v>
+      </c>
+      <c r="D24" t="str">
+        <v>C099736A</v>
+      </c>
+      <c r="E24" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F24">
+        <v>11843</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>29</v>
+      </c>
+      <c r="B25" t="str">
+        <v>13-07-2025 8:29:45 PM</v>
+      </c>
+      <c r="C25" t="str">
+        <v>TN28BF2542</v>
+      </c>
+      <c r="D25" t="str">
+        <v>BCN2078C</v>
+      </c>
+      <c r="E25" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F25">
+        <v>7455</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="B26" t="str">
+        <v>13-07-2025 8:29:45 PM</v>
+      </c>
+      <c r="C26" t="str">
+        <v>TN28BF2542</v>
+      </c>
+      <c r="D26" t="str">
+        <v>C093361B</v>
+      </c>
+      <c r="E26" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F26">
+        <v>9774</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F26"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23424,9 +23424,69 @@
         <v>9774</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27">
+        <v>31</v>
+      </c>
+      <c r="B27" t="str">
+        <v>13-07-2025 11:13:51 PM</v>
+      </c>
+      <c r="C27" t="str">
+        <v>TN28BA6503</v>
+      </c>
+      <c r="D27" t="str">
+        <v>BCM6772A</v>
+      </c>
+      <c r="E27" t="str">
+        <v>JPM</v>
+      </c>
+      <c r="F27">
+        <v>10665</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28" t="str">
+        <v>13-07-2025 11:13:51 PM</v>
+      </c>
+      <c r="C28" t="str">
+        <v>TN28BA6503</v>
+      </c>
+      <c r="D28" t="str">
+        <v>BCN2078C</v>
+      </c>
+      <c r="E28" t="str">
+        <v>JPM</v>
+      </c>
+      <c r="F28">
+        <v>7455</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>33</v>
+      </c>
+      <c r="B29" t="str">
+        <v>13-07-2025 11:13:51 PM</v>
+      </c>
+      <c r="C29" t="str">
+        <v>TN28BA6503</v>
+      </c>
+      <c r="D29" t="str">
+        <v>C057819B</v>
+      </c>
+      <c r="E29" t="str">
+        <v>JPM</v>
+      </c>
+      <c r="F29">
+        <v>8164</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F29"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23484,9 +23484,69 @@
         <v>8164</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30">
+        <v>34</v>
+      </c>
+      <c r="B30" t="str">
+        <v>13-07-2025 11:28:10 PM</v>
+      </c>
+      <c r="C30" t="str">
+        <v>TN04AR8167</v>
+      </c>
+      <c r="D30" t="str">
+        <v>BCM6772A</v>
+      </c>
+      <c r="E30" t="str">
+        <v>GWS</v>
+      </c>
+      <c r="F30">
+        <v>10665</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>35</v>
+      </c>
+      <c r="B31" t="str">
+        <v>13-07-2025 11:28:10 PM</v>
+      </c>
+      <c r="C31" t="str">
+        <v>TN04AR8167</v>
+      </c>
+      <c r="D31" t="str">
+        <v>C078812B</v>
+      </c>
+      <c r="E31" t="str">
+        <v>GWS</v>
+      </c>
+      <c r="F31">
+        <v>11004</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>36</v>
+      </c>
+      <c r="B32" t="str">
+        <v>13-07-2025 11:28:10 PM</v>
+      </c>
+      <c r="C32" t="str">
+        <v>TN04AR8167</v>
+      </c>
+      <c r="D32" t="str">
+        <v>C057819B</v>
+      </c>
+      <c r="E32" t="str">
+        <v>GWS</v>
+      </c>
+      <c r="F32">
+        <v>8164</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F29"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F32"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -23489,7 +23489,7 @@
         <v>34</v>
       </c>
       <c r="B30" t="str">
-        <v>13-07-2025 11:28:10 PM</v>
+        <v>13-07-2025 11:29:49 PM</v>
       </c>
       <c r="C30" t="str">
         <v>TN04AR8167</v>
@@ -23509,19 +23509,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="str">
-        <v>13-07-2025 11:28:10 PM</v>
+        <v>13-07-2025 11:29:49 PM</v>
       </c>
       <c r="C31" t="str">
         <v>TN04AR8167</v>
       </c>
       <c r="D31" t="str">
-        <v>C078812B</v>
+        <v>BCL6727A</v>
       </c>
       <c r="E31" t="str">
         <v>GWS</v>
       </c>
       <c r="F31">
-        <v>11004</v>
+        <v>10802</v>
       </c>
     </row>
     <row r="32">
@@ -23529,19 +23529,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="str">
-        <v>13-07-2025 11:28:10 PM</v>
+        <v>13-07-2025 11:29:49 PM</v>
       </c>
       <c r="C32" t="str">
         <v>TN04AR8167</v>
       </c>
       <c r="D32" t="str">
-        <v>C057819B</v>
+        <v>C099887B</v>
       </c>
       <c r="E32" t="str">
         <v>GWS</v>
       </c>
       <c r="F32">
-        <v>8164</v>
+        <v>11089</v>
       </c>
     </row>
   </sheetData>

--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23544,9 +23544,69 @@
         <v>11089</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33">
+        <v>37</v>
+      </c>
+      <c r="B33" t="str">
+        <v>14-07-2025 4:21:00 PM</v>
+      </c>
+      <c r="C33" t="str">
+        <v>TN04AJ0423</v>
+      </c>
+      <c r="D33" t="str">
+        <v>BCN7242B</v>
+      </c>
+      <c r="E33" t="str">
+        <v>SCT</v>
+      </c>
+      <c r="F33">
+        <v>10181</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>38</v>
+      </c>
+      <c r="B34" t="str">
+        <v>14-07-2025 4:21:00 PM</v>
+      </c>
+      <c r="C34" t="str">
+        <v>TN04AJ0423</v>
+      </c>
+      <c r="D34" t="str">
+        <v>C099885A</v>
+      </c>
+      <c r="E34" t="str">
+        <v>SCT</v>
+      </c>
+      <c r="F34">
+        <v>11789</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>39</v>
+      </c>
+      <c r="B35" t="str">
+        <v>14-07-2025 4:21:00 PM</v>
+      </c>
+      <c r="C35" t="str">
+        <v>TN04AJ0423</v>
+      </c>
+      <c r="D35" t="str">
+        <v>C063616C</v>
+      </c>
+      <c r="E35" t="str">
+        <v>SCT</v>
+      </c>
+      <c r="F35">
+        <v>11143</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F35"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23604,9 +23604,69 @@
         <v>11143</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36">
+        <v>40</v>
+      </c>
+      <c r="B36" t="str">
+        <v>14-07-2025 4:26:28 PM</v>
+      </c>
+      <c r="C36" t="str">
+        <v>TN28AK6521</v>
+      </c>
+      <c r="D36" t="str">
+        <v>BCM7919B</v>
+      </c>
+      <c r="E36" t="str">
+        <v>SAI</v>
+      </c>
+      <c r="F36">
+        <v>9035</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>41</v>
+      </c>
+      <c r="B37" t="str">
+        <v>14-07-2025 4:26:28 PM</v>
+      </c>
+      <c r="C37" t="str">
+        <v>TN28AK6521</v>
+      </c>
+      <c r="D37" t="str">
+        <v>C092733A</v>
+      </c>
+      <c r="E37" t="str">
+        <v>SAI</v>
+      </c>
+      <c r="F37">
+        <v>10895</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>42</v>
+      </c>
+      <c r="B38" t="str">
+        <v>14-07-2025 4:26:28 PM</v>
+      </c>
+      <c r="C38" t="str">
+        <v>TN28AK6521</v>
+      </c>
+      <c r="D38" t="str">
+        <v>C087506B</v>
+      </c>
+      <c r="E38" t="str">
+        <v>SAI</v>
+      </c>
+      <c r="F38">
+        <v>11159</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F38"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23664,9 +23664,69 @@
         <v>11159</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39">
+        <v>43</v>
+      </c>
+      <c r="B39" t="str">
+        <v>15-07-2025 12:25:50 PM</v>
+      </c>
+      <c r="C39" t="str">
+        <v>TN04AS5562</v>
+      </c>
+      <c r="D39" t="str">
+        <v>C057819B</v>
+      </c>
+      <c r="E39" t="str">
+        <v>GWS</v>
+      </c>
+      <c r="F39">
+        <v>8164</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>44</v>
+      </c>
+      <c r="B40" t="str">
+        <v>15-07-2025 12:25:50 PM</v>
+      </c>
+      <c r="C40" t="str">
+        <v>TN04AS5562</v>
+      </c>
+      <c r="D40" t="str">
+        <v>AS48095A</v>
+      </c>
+      <c r="E40" t="str">
+        <v>GWS</v>
+      </c>
+      <c r="F40">
+        <v>11943</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>45</v>
+      </c>
+      <c r="B41" t="str">
+        <v>15-07-2025 12:25:50 PM</v>
+      </c>
+      <c r="C41" t="str">
+        <v>TN04AS5562</v>
+      </c>
+      <c r="D41" t="str">
+        <v>C101291B</v>
+      </c>
+      <c r="E41" t="str">
+        <v>GWS</v>
+      </c>
+      <c r="F41">
+        <v>9281</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F41"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -23669,19 +23669,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="str">
-        <v>15-07-2025 12:25:50 PM</v>
+        <v>15-07-2025 12:27:40 PM</v>
       </c>
       <c r="C39" t="str">
-        <v>TN04AS5562</v>
+        <v>TN28BA6503</v>
       </c>
       <c r="D39" t="str">
-        <v>C057819B</v>
+        <v>C063616A</v>
       </c>
       <c r="E39" t="str">
-        <v>GWS</v>
+        <v>JPM</v>
       </c>
       <c r="F39">
-        <v>8164</v>
+        <v>10881</v>
       </c>
     </row>
     <row r="40">
@@ -23689,19 +23689,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="str">
-        <v>15-07-2025 12:25:50 PM</v>
+        <v>15-07-2025 12:27:40 PM</v>
       </c>
       <c r="C40" t="str">
-        <v>TN04AS5562</v>
+        <v>TN28BA6503</v>
       </c>
       <c r="D40" t="str">
-        <v>AS48095A</v>
+        <v>BCL9257B</v>
       </c>
       <c r="E40" t="str">
-        <v>GWS</v>
+        <v>JPM</v>
       </c>
       <c r="F40">
-        <v>11943</v>
+        <v>10512</v>
       </c>
     </row>
     <row r="41">
@@ -23709,19 +23709,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="str">
-        <v>15-07-2025 12:25:50 PM</v>
+        <v>15-07-2025 12:27:40 PM</v>
       </c>
       <c r="C41" t="str">
-        <v>TN04AS5562</v>
+        <v>TN28BA6503</v>
       </c>
       <c r="D41" t="str">
-        <v>C101291B</v>
+        <v>BCN9423A</v>
       </c>
       <c r="E41" t="str">
-        <v>GWS</v>
+        <v>JPM</v>
       </c>
       <c r="F41">
-        <v>9281</v>
+        <v>10934</v>
       </c>
     </row>
   </sheetData>

--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23724,9 +23724,69 @@
         <v>10934</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42">
+        <v>46</v>
+      </c>
+      <c r="B42" t="str">
+        <v>15-07-2025 12:31:06 PM</v>
+      </c>
+      <c r="C42" t="str">
+        <v>TN03U1410</v>
+      </c>
+      <c r="D42" t="str">
+        <v>C062523B</v>
+      </c>
+      <c r="E42" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F42">
+        <v>10174</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>47</v>
+      </c>
+      <c r="B43" t="str">
+        <v>15-07-2025 12:31:06 PM</v>
+      </c>
+      <c r="C43" t="str">
+        <v>TN03U1410</v>
+      </c>
+      <c r="D43" t="str">
+        <v>BCM8546C</v>
+      </c>
+      <c r="E43" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F43">
+        <v>8235</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>48</v>
+      </c>
+      <c r="B44" t="str">
+        <v>15-07-2025 12:31:06 PM</v>
+      </c>
+      <c r="C44" t="str">
+        <v>TN03U1410</v>
+      </c>
+      <c r="D44" t="str">
+        <v>C078812B</v>
+      </c>
+      <c r="E44" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F44">
+        <v>11004</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F44"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23784,9 +23784,69 @@
         <v>11004</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45">
+        <v>49</v>
+      </c>
+      <c r="B45" t="str">
+        <v>15-07-2025 12:35:32 PM</v>
+      </c>
+      <c r="C45" t="str">
+        <v>TN03AK4559</v>
+      </c>
+      <c r="D45" t="str">
+        <v>KGK622A</v>
+      </c>
+      <c r="E45" t="str">
+        <v>MST</v>
+      </c>
+      <c r="F45">
+        <v>11953</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>50</v>
+      </c>
+      <c r="B46" t="str">
+        <v>15-07-2025 12:35:32 PM</v>
+      </c>
+      <c r="C46" t="str">
+        <v>TN03AK4559</v>
+      </c>
+      <c r="D46" t="str">
+        <v>BCM4941A</v>
+      </c>
+      <c r="E46" t="str">
+        <v>MST</v>
+      </c>
+      <c r="F46">
+        <v>10135</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>51</v>
+      </c>
+      <c r="B47" t="str">
+        <v>15-07-2025 12:35:32 PM</v>
+      </c>
+      <c r="C47" t="str">
+        <v>TN03AK4559</v>
+      </c>
+      <c r="D47" t="str">
+        <v>BCM6772A</v>
+      </c>
+      <c r="E47" t="str">
+        <v>MST</v>
+      </c>
+      <c r="F47">
+        <v>10665</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F44"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F47"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -23789,19 +23789,19 @@
         <v>49</v>
       </c>
       <c r="B45" t="str">
-        <v>15-07-2025 12:35:32 PM</v>
+        <v>15-07-2025 12:36:29 PM</v>
       </c>
       <c r="C45" t="str">
-        <v>TN03AK4559</v>
+        <v>TN03U0432</v>
       </c>
       <c r="D45" t="str">
-        <v>KGK622A</v>
+        <v>BCN6657</v>
       </c>
       <c r="E45" t="str">
-        <v>MST</v>
+        <v>MPT</v>
       </c>
       <c r="F45">
-        <v>11953</v>
+        <v>13365</v>
       </c>
     </row>
     <row r="46">
@@ -23809,19 +23809,19 @@
         <v>50</v>
       </c>
       <c r="B46" t="str">
-        <v>15-07-2025 12:35:32 PM</v>
+        <v>15-07-2025 12:36:29 PM</v>
       </c>
       <c r="C46" t="str">
-        <v>TN03AK4559</v>
+        <v>TN03U0432</v>
       </c>
       <c r="D46" t="str">
-        <v>BCM4941A</v>
+        <v>BCM6772B</v>
       </c>
       <c r="E46" t="str">
-        <v>MST</v>
+        <v>MPT</v>
       </c>
       <c r="F46">
-        <v>10135</v>
+        <v>9965</v>
       </c>
     </row>
     <row r="47">
@@ -23829,19 +23829,19 @@
         <v>51</v>
       </c>
       <c r="B47" t="str">
-        <v>15-07-2025 12:35:32 PM</v>
+        <v>15-07-2025 12:36:29 PM</v>
       </c>
       <c r="C47" t="str">
-        <v>TN03AK4559</v>
+        <v>TN03U0432</v>
       </c>
       <c r="D47" t="str">
-        <v>BCM6772A</v>
+        <v>C065864A</v>
       </c>
       <c r="E47" t="str">
-        <v>MST</v>
+        <v>MPT</v>
       </c>
       <c r="F47">
-        <v>10665</v>
+        <v>8764</v>
       </c>
     </row>
   </sheetData>

--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23789,19 +23789,19 @@
         <v>49</v>
       </c>
       <c r="B45" t="str">
-        <v>15-07-2025 12:36:29 PM</v>
+        <v>15-07-2025 12:37:38 PM</v>
       </c>
       <c r="C45" t="str">
-        <v>TN03U0432</v>
+        <v>TN04AH4033</v>
       </c>
       <c r="D45" t="str">
-        <v>BCN6657</v>
+        <v>BCL9256B</v>
       </c>
       <c r="E45" t="str">
-        <v>MPT</v>
+        <v>ASST</v>
       </c>
       <c r="F45">
-        <v>13365</v>
+        <v>10152</v>
       </c>
     </row>
     <row r="46">
@@ -23809,19 +23809,19 @@
         <v>50</v>
       </c>
       <c r="B46" t="str">
-        <v>15-07-2025 12:36:29 PM</v>
+        <v>15-07-2025 12:37:38 PM</v>
       </c>
       <c r="C46" t="str">
-        <v>TN03U0432</v>
+        <v>TN04AH4033</v>
       </c>
       <c r="D46" t="str">
-        <v>BCM6772B</v>
+        <v>BCM8546B</v>
       </c>
       <c r="E46" t="str">
-        <v>MPT</v>
+        <v>ASST</v>
       </c>
       <c r="F46">
-        <v>9965</v>
+        <v>8435</v>
       </c>
     </row>
     <row r="47">
@@ -23829,24 +23829,44 @@
         <v>51</v>
       </c>
       <c r="B47" t="str">
-        <v>15-07-2025 12:36:29 PM</v>
+        <v>15-07-2025 12:37:38 PM</v>
       </c>
       <c r="C47" t="str">
-        <v>TN03U0432</v>
+        <v>TN04AH4033</v>
       </c>
       <c r="D47" t="str">
-        <v>C065864A</v>
+        <v>C077440A</v>
       </c>
       <c r="E47" t="str">
-        <v>MPT</v>
+        <v>ASST</v>
       </c>
       <c r="F47">
-        <v>8764</v>
+        <v>10375</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>52</v>
+      </c>
+      <c r="B48" t="str">
+        <v>15-07-2025 12:37:38 PM</v>
+      </c>
+      <c r="C48" t="str">
+        <v>TN04AH4033</v>
+      </c>
+      <c r="D48" t="str">
+        <v>C087504A</v>
+      </c>
+      <c r="E48" t="str">
+        <v>ASST</v>
+      </c>
+      <c r="F48">
+        <v>9915</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F47"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F48"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23789,19 +23789,19 @@
         <v>49</v>
       </c>
       <c r="B45" t="str">
-        <v>15-07-2025 12:37:38 PM</v>
+        <v>15-07-2025 12:39:35 PM</v>
       </c>
       <c r="C45" t="str">
-        <v>TN04AH4033</v>
+        <v>TN04AM7632</v>
       </c>
       <c r="D45" t="str">
-        <v>BCL9256B</v>
+        <v>BCM8546C</v>
       </c>
       <c r="E45" t="str">
-        <v>ASST</v>
+        <v>GWS</v>
       </c>
       <c r="F45">
-        <v>10152</v>
+        <v>8235</v>
       </c>
     </row>
     <row r="46">
@@ -23809,19 +23809,19 @@
         <v>50</v>
       </c>
       <c r="B46" t="str">
-        <v>15-07-2025 12:37:38 PM</v>
+        <v>15-07-2025 12:39:35 PM</v>
       </c>
       <c r="C46" t="str">
-        <v>TN04AH4033</v>
+        <v>TN04AM7632</v>
       </c>
       <c r="D46" t="str">
-        <v>BCM8546B</v>
+        <v>KGK695A</v>
       </c>
       <c r="E46" t="str">
-        <v>ASST</v>
+        <v>GWS</v>
       </c>
       <c r="F46">
-        <v>8435</v>
+        <v>12443</v>
       </c>
     </row>
     <row r="47">
@@ -23829,44 +23829,24 @@
         <v>51</v>
       </c>
       <c r="B47" t="str">
-        <v>15-07-2025 12:37:38 PM</v>
+        <v>15-07-2025 12:39:35 PM</v>
       </c>
       <c r="C47" t="str">
-        <v>TN04AH4033</v>
+        <v>TN04AM7632</v>
       </c>
       <c r="D47" t="str">
-        <v>C077440A</v>
+        <v>C071955</v>
       </c>
       <c r="E47" t="str">
-        <v>ASST</v>
+        <v>GWS</v>
       </c>
       <c r="F47">
-        <v>10375</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>52</v>
-      </c>
-      <c r="B48" t="str">
-        <v>15-07-2025 12:37:38 PM</v>
-      </c>
-      <c r="C48" t="str">
-        <v>TN04AH4033</v>
-      </c>
-      <c r="D48" t="str">
-        <v>C087504A</v>
-      </c>
-      <c r="E48" t="str">
-        <v>ASST</v>
-      </c>
-      <c r="F48">
-        <v>9915</v>
+        <v>10894</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F48"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F47"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23844,9 +23844,69 @@
         <v>10894</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48">
+        <v>52</v>
+      </c>
+      <c r="B48" t="str">
+        <v>15-07-2025 12:52:32 PM</v>
+      </c>
+      <c r="C48" t="str">
+        <v>TN04AR8167</v>
+      </c>
+      <c r="D48" t="str">
+        <v>BCN2078A</v>
+      </c>
+      <c r="E48" t="str">
+        <v>GWS</v>
+      </c>
+      <c r="F48">
+        <v>7635</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>53</v>
+      </c>
+      <c r="B49" t="str">
+        <v>15-07-2025 12:52:32 PM</v>
+      </c>
+      <c r="C49" t="str">
+        <v>TN04AR8167</v>
+      </c>
+      <c r="D49" t="str">
+        <v>C087506B</v>
+      </c>
+      <c r="E49" t="str">
+        <v>GWS</v>
+      </c>
+      <c r="F49">
+        <v>11159</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>54</v>
+      </c>
+      <c r="B50" t="str">
+        <v>15-07-2025 12:52:32 PM</v>
+      </c>
+      <c r="C50" t="str">
+        <v>TN04AR8167</v>
+      </c>
+      <c r="D50" t="str">
+        <v>C065864A</v>
+      </c>
+      <c r="E50" t="str">
+        <v>GWS</v>
+      </c>
+      <c r="F50">
+        <v>8764</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F47"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F50"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23904,9 +23904,69 @@
         <v>8764</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51">
+        <v>55</v>
+      </c>
+      <c r="B51" t="str">
+        <v>15-07-2025 1:15:36 PM</v>
+      </c>
+      <c r="C51" t="str">
+        <v>TN03AK4559</v>
+      </c>
+      <c r="D51" t="str">
+        <v>BCN6657</v>
+      </c>
+      <c r="E51" t="str">
+        <v>MST</v>
+      </c>
+      <c r="F51">
+        <v>13365</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>56</v>
+      </c>
+      <c r="B52" t="str">
+        <v>15-07-2025 1:15:36 PM</v>
+      </c>
+      <c r="C52" t="str">
+        <v>TN03AK4559</v>
+      </c>
+      <c r="D52" t="str">
+        <v>BCM6891C</v>
+      </c>
+      <c r="E52" t="str">
+        <v>MST</v>
+      </c>
+      <c r="F52">
+        <v>8705</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>57</v>
+      </c>
+      <c r="B53" t="str">
+        <v>15-07-2025 1:15:36 PM</v>
+      </c>
+      <c r="C53" t="str">
+        <v>TN03AK4559</v>
+      </c>
+      <c r="D53" t="str">
+        <v>BCM3462B</v>
+      </c>
+      <c r="E53" t="str">
+        <v>MST</v>
+      </c>
+      <c r="F53">
+        <v>8875</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F53"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23964,9 +23964,69 @@
         <v>8875</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54">
+        <v>58</v>
+      </c>
+      <c r="B54" t="str">
+        <v>15-07-2025 1:36:53 PM</v>
+      </c>
+      <c r="C54" t="str">
+        <v>TN88J8770</v>
+      </c>
+      <c r="D54" t="str">
+        <v>C073931B</v>
+      </c>
+      <c r="E54" t="str">
+        <v>MSMD</v>
+      </c>
+      <c r="F54">
+        <v>8974</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>59</v>
+      </c>
+      <c r="B55" t="str">
+        <v>15-07-2025 1:36:53 PM</v>
+      </c>
+      <c r="C55" t="str">
+        <v>TN88J8770</v>
+      </c>
+      <c r="D55" t="str">
+        <v>BCL9257A</v>
+      </c>
+      <c r="E55" t="str">
+        <v>MSMD</v>
+      </c>
+      <c r="F55">
+        <v>10512</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>60</v>
+      </c>
+      <c r="B56" t="str">
+        <v>15-07-2025 1:36:53 PM</v>
+      </c>
+      <c r="C56" t="str">
+        <v>TN88J8770</v>
+      </c>
+      <c r="D56" t="str">
+        <v>C057810A</v>
+      </c>
+      <c r="E56" t="str">
+        <v>MSMD</v>
+      </c>
+      <c r="F56">
+        <v>11841</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F56"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -24024,9 +24024,69 @@
         <v>11841</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57">
+        <v>64</v>
+      </c>
+      <c r="B57" t="str">
+        <v>16-07-2025 12:01:18 PM</v>
+      </c>
+      <c r="C57" t="str">
+        <v>TN04P4876</v>
+      </c>
+      <c r="D57" t="str">
+        <v>BCM6888C</v>
+      </c>
+      <c r="E57" t="str">
+        <v>MSMD</v>
+      </c>
+      <c r="F57">
+        <v>8355</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>65</v>
+      </c>
+      <c r="B58" t="str">
+        <v>16-07-2025 12:01:18 PM</v>
+      </c>
+      <c r="C58" t="str">
+        <v>TN04P4876</v>
+      </c>
+      <c r="D58" t="str">
+        <v>C073932B</v>
+      </c>
+      <c r="E58" t="str">
+        <v>MSMD</v>
+      </c>
+      <c r="F58">
+        <v>8034</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>66</v>
+      </c>
+      <c r="B59" t="str">
+        <v>16-07-2025 12:01:18 PM</v>
+      </c>
+      <c r="C59" t="str">
+        <v>TN04P4876</v>
+      </c>
+      <c r="D59" t="str">
+        <v>BCN2078C</v>
+      </c>
+      <c r="E59" t="str">
+        <v>MSMD</v>
+      </c>
+      <c r="F59">
+        <v>7455</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F56"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F59"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -24084,9 +24084,69 @@
         <v>7455</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60">
+        <v>67</v>
+      </c>
+      <c r="B60" t="str">
+        <v>16-07-2025 12:16:28 PM</v>
+      </c>
+      <c r="C60" t="str">
+        <v>TN28AL5969</v>
+      </c>
+      <c r="D60" t="str">
+        <v>C100526A</v>
+      </c>
+      <c r="E60" t="str">
+        <v>SKT</v>
+      </c>
+      <c r="F60">
+        <v>10148</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>68</v>
+      </c>
+      <c r="B61" t="str">
+        <v>16-07-2025 12:16:28 PM</v>
+      </c>
+      <c r="C61" t="str">
+        <v>TN28AL5969</v>
+      </c>
+      <c r="D61" t="str">
+        <v>BCM7923B</v>
+      </c>
+      <c r="E61" t="str">
+        <v>SKT</v>
+      </c>
+      <c r="F61">
+        <v>8915</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>69</v>
+      </c>
+      <c r="B62" t="str">
+        <v>16-07-2025 12:16:28 PM</v>
+      </c>
+      <c r="C62" t="str">
+        <v>TN28AL5969</v>
+      </c>
+      <c r="D62" t="str">
+        <v>C065863C</v>
+      </c>
+      <c r="E62" t="str">
+        <v>SKT</v>
+      </c>
+      <c r="F62">
+        <v>8644</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F59"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F62"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -24089,19 +24089,19 @@
         <v>67</v>
       </c>
       <c r="B60" t="str">
-        <v>16-07-2025 12:16:28 PM</v>
+        <v>16-07-2025 12:18:28 PM</v>
       </c>
       <c r="C60" t="str">
-        <v>TN28AL5969</v>
+        <v>TN04AH3326</v>
       </c>
       <c r="D60" t="str">
-        <v>C100526A</v>
+        <v>C075553A</v>
       </c>
       <c r="E60" t="str">
-        <v>SKT</v>
+        <v>SAI</v>
       </c>
       <c r="F60">
-        <v>10148</v>
+        <v>10758</v>
       </c>
     </row>
     <row r="61">
@@ -24109,19 +24109,19 @@
         <v>68</v>
       </c>
       <c r="B61" t="str">
-        <v>16-07-2025 12:16:28 PM</v>
+        <v>16-07-2025 12:18:28 PM</v>
       </c>
       <c r="C61" t="str">
-        <v>TN28AL5969</v>
+        <v>TN04AH3326</v>
       </c>
       <c r="D61" t="str">
-        <v>BCM7923B</v>
+        <v>BCM4917A</v>
       </c>
       <c r="E61" t="str">
-        <v>SKT</v>
+        <v>SAI</v>
       </c>
       <c r="F61">
-        <v>8915</v>
+        <v>7265</v>
       </c>
     </row>
     <row r="62">
@@ -24129,19 +24129,19 @@
         <v>69</v>
       </c>
       <c r="B62" t="str">
-        <v>16-07-2025 12:16:28 PM</v>
+        <v>16-07-2025 12:18:28 PM</v>
       </c>
       <c r="C62" t="str">
-        <v>TN28AL5969</v>
+        <v>TN04AH3326</v>
       </c>
       <c r="D62" t="str">
-        <v>C065863C</v>
+        <v>C077440A</v>
       </c>
       <c r="E62" t="str">
-        <v>SKT</v>
+        <v>SAI</v>
       </c>
       <c r="F62">
-        <v>8644</v>
+        <v>10375</v>
       </c>
     </row>
   </sheetData>

--- a/coil-data.xlsx
+++ b/coil-data.xlsx
@@ -22899,7 +22899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -24144,9 +24144,89 @@
         <v>10375</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63">
+        <v>73</v>
+      </c>
+      <c r="B63" t="str">
+        <v>16-07-2025 12:28:04 PM</v>
+      </c>
+      <c r="C63" t="str">
+        <v>TN03U0432</v>
+      </c>
+      <c r="D63" t="str">
+        <v>C101527A</v>
+      </c>
+      <c r="E63" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F63">
+        <v>12209</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>74</v>
+      </c>
+      <c r="B64" t="str">
+        <v>16-07-2025 12:28:04 PM</v>
+      </c>
+      <c r="C64" t="str">
+        <v>TN03U0432</v>
+      </c>
+      <c r="D64" t="str">
+        <v>C063616B</v>
+      </c>
+      <c r="E64" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F64">
+        <v>10881</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>75</v>
+      </c>
+      <c r="B65" t="str">
+        <v>16-07-2025 12:28:04 PM</v>
+      </c>
+      <c r="C65" t="str">
+        <v>TN03U0432</v>
+      </c>
+      <c r="D65" t="str">
+        <v>C100211A</v>
+      </c>
+      <c r="E65" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F65">
+        <v>7015</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>76</v>
+      </c>
+      <c r="B66" t="str">
+        <v>16-07-2025 12:28:04 PM</v>
+      </c>
+      <c r="C66" t="str">
+        <v>TN03U0432</v>
+      </c>
+      <c r="D66" t="str">
+        <v>C065863C</v>
+      </c>
+      <c r="E66" t="str">
+        <v>MPT</v>
+      </c>
+      <c r="F66">
+        <v>8644</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F62"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F66"/>
   </ignoredErrors>
 </worksheet>
 </file>